--- a/data-migration/xlsx_1900-/1912_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1912_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B886FCA5-E09A-47E6-B73E-721051A94530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31C8C2B-4739-451E-ADDD-06086C8B7472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="1269">
   <si>
     <t>Sommer</t>
   </si>
@@ -3837,6 +3837,9 @@
   </si>
   <si>
     <t>sidlerhuguenin_e</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4180,21 +4183,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E121" workbookViewId="0">
-      <selection activeCell="H145" sqref="H145"/>
+    <sheetView tabSelected="1" topLeftCell="E142" workbookViewId="0">
+      <selection activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="41.5546875" customWidth="1"/>
-    <col min="6" max="6" width="64.109375" customWidth="1"/>
-    <col min="7" max="7" width="58.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" customWidth="1"/>
+    <col min="6" max="6" width="64.140625" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1912</v>
       </c>
@@ -4220,7 +4223,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1912</v>
       </c>
@@ -4246,7 +4249,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1912</v>
       </c>
@@ -4275,7 +4278,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1912</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1912</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1912</v>
       </c>
@@ -4359,7 +4362,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1912</v>
       </c>
@@ -4385,7 +4388,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1912</v>
       </c>
@@ -4411,7 +4414,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1912</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1912</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1912</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1912</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1912</v>
       </c>
@@ -4541,7 +4544,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1912</v>
       </c>
@@ -4567,7 +4570,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1912</v>
       </c>
@@ -4593,7 +4596,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1912</v>
       </c>
@@ -4619,7 +4622,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1912</v>
       </c>
@@ -4645,7 +4648,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1912</v>
       </c>
@@ -4671,7 +4674,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1912</v>
       </c>
@@ -4697,7 +4700,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1912</v>
       </c>
@@ -4723,7 +4726,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1912</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1912</v>
       </c>
@@ -4775,7 +4778,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1912</v>
       </c>
@@ -4801,7 +4804,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1912</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1912</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1912</v>
       </c>
@@ -4879,7 +4882,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1912</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1912</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1912</v>
       </c>
@@ -4957,7 +4960,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1912</v>
       </c>
@@ -4983,7 +4986,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1912</v>
       </c>
@@ -5012,7 +5015,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1912</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1912</v>
       </c>
@@ -5064,7 +5067,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1912</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1912</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1912</v>
       </c>
@@ -5142,7 +5145,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1912</v>
       </c>
@@ -5168,7 +5171,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1912</v>
       </c>
@@ -5194,7 +5197,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1912</v>
       </c>
@@ -5220,7 +5223,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1912</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1912</v>
       </c>
@@ -5272,7 +5275,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1912</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1912</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1912</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1912</v>
       </c>
@@ -5376,7 +5379,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1912</v>
       </c>
@@ -5402,7 +5405,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1912</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1912</v>
       </c>
@@ -5454,7 +5457,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1912</v>
       </c>
@@ -5483,7 +5486,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1912</v>
       </c>
@@ -5509,7 +5512,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1912</v>
       </c>
@@ -5538,7 +5541,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1912</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1912</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1912</v>
       </c>
@@ -5616,7 +5619,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1912</v>
       </c>
@@ -5642,7 +5645,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1912</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1912</v>
       </c>
@@ -5694,7 +5697,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1912</v>
       </c>
@@ -5720,7 +5723,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1912</v>
       </c>
@@ -5746,7 +5749,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1912</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1912</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1912</v>
       </c>
@@ -5827,7 +5830,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1912</v>
       </c>
@@ -5853,7 +5856,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1912</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1912</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1912</v>
       </c>
@@ -5931,7 +5934,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1912</v>
       </c>
@@ -5960,7 +5963,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1912</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1912</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1912</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1912</v>
       </c>
@@ -6064,7 +6067,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1912</v>
       </c>
@@ -6090,7 +6093,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1912</v>
       </c>
@@ -6116,7 +6119,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1912</v>
       </c>
@@ -6142,7 +6145,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1912</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1912</v>
       </c>
@@ -6197,7 +6200,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1912</v>
       </c>
@@ -6229,7 +6232,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1912</v>
       </c>
@@ -6261,7 +6264,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1912</v>
       </c>
@@ -6287,7 +6290,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1912</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1912</v>
       </c>
@@ -6345,7 +6348,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1912</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1912</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1912</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1912</v>
       </c>
@@ -6455,7 +6458,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1912</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1912</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1912</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1912</v>
       </c>
@@ -6559,7 +6562,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1912</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1912</v>
       </c>
@@ -6611,7 +6614,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1912</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1912</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1912</v>
       </c>
@@ -6695,7 +6698,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1912</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1912</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1912</v>
       </c>
@@ -6782,7 +6785,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1912</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1912</v>
       </c>
@@ -6834,7 +6837,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1912</v>
       </c>
@@ -6860,7 +6863,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1912</v>
       </c>
@@ -6886,7 +6889,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1912</v>
       </c>
@@ -6912,7 +6915,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1912</v>
       </c>
@@ -6938,7 +6941,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1912</v>
       </c>
@@ -6964,7 +6967,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1912</v>
       </c>
@@ -6990,7 +6993,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1912</v>
       </c>
@@ -7016,7 +7019,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1912</v>
       </c>
@@ -7042,7 +7045,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1912</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1912</v>
       </c>
@@ -7094,7 +7097,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1912</v>
       </c>
@@ -7120,7 +7123,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1912</v>
       </c>
@@ -7146,7 +7149,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1912</v>
       </c>
@@ -7172,7 +7175,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1912</v>
       </c>
@@ -7198,7 +7201,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1912</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1912</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1912</v>
       </c>
@@ -7276,7 +7279,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1912</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1912</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1912</v>
       </c>
@@ -7354,7 +7357,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1912</v>
       </c>
@@ -7380,7 +7383,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1912</v>
       </c>
@@ -7406,7 +7409,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1912</v>
       </c>
@@ -7432,7 +7435,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1912</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1912</v>
       </c>
@@ -7484,7 +7487,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1912</v>
       </c>
@@ -7510,7 +7513,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1912</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1912</v>
       </c>
@@ -7568,7 +7571,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1912</v>
       </c>
@@ -7600,7 +7603,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1912</v>
       </c>
@@ -7626,7 +7629,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1912</v>
       </c>
@@ -7652,7 +7655,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1912</v>
       </c>
@@ -7684,7 +7687,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1912</v>
       </c>
@@ -7710,7 +7713,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1912</v>
       </c>
@@ -7736,7 +7739,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1912</v>
       </c>
@@ -7762,7 +7765,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1912</v>
       </c>
@@ -7788,7 +7791,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1912</v>
       </c>
@@ -7814,7 +7817,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1912</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1912</v>
       </c>
@@ -7866,7 +7869,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1912</v>
       </c>
@@ -7892,7 +7895,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1912</v>
       </c>
@@ -7918,7 +7921,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1912</v>
       </c>
@@ -7944,7 +7947,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1912</v>
       </c>
@@ -7970,7 +7973,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1912</v>
       </c>
@@ -7996,7 +7999,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1912</v>
       </c>
@@ -8022,7 +8025,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1912</v>
       </c>
@@ -8048,7 +8051,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1912</v>
       </c>
@@ -8074,7 +8077,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1912</v>
       </c>
@@ -8100,7 +8103,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1912</v>
       </c>
@@ -8126,7 +8129,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1912</v>
       </c>
@@ -8152,7 +8155,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1912</v>
       </c>
@@ -8178,7 +8181,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1912</v>
       </c>
@@ -8204,7 +8207,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1912</v>
       </c>
@@ -8230,7 +8233,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1912</v>
       </c>
@@ -8256,7 +8259,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1912</v>
       </c>
@@ -8282,7 +8285,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1912</v>
       </c>
@@ -8308,7 +8311,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1912</v>
       </c>
@@ -8334,7 +8337,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1912</v>
       </c>
@@ -8360,7 +8363,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1912</v>
       </c>
@@ -8386,7 +8389,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1912</v>
       </c>
@@ -8412,7 +8415,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1912</v>
       </c>
@@ -8438,7 +8441,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1912</v>
       </c>
@@ -8464,7 +8467,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1912</v>
       </c>
@@ -8490,7 +8493,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1912</v>
       </c>
@@ -8516,7 +8519,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1912</v>
       </c>
@@ -8542,7 +8545,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1912</v>
       </c>
@@ -8565,10 +8568,10 @@
         <v>1152</v>
       </c>
       <c r="I165" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1912</v>
       </c>
@@ -8591,10 +8594,10 @@
         <v>1152</v>
       </c>
       <c r="I166" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1912</v>
       </c>
@@ -8617,10 +8620,10 @@
         <v>1153</v>
       </c>
       <c r="I167" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1912</v>
       </c>
@@ -8643,10 +8646,10 @@
         <v>1153</v>
       </c>
       <c r="I168" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1912</v>
       </c>
@@ -8669,10 +8672,10 @@
         <v>1153</v>
       </c>
       <c r="I169" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1912</v>
       </c>
@@ -8695,10 +8698,10 @@
         <v>1153</v>
       </c>
       <c r="I170" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1912</v>
       </c>
@@ -8721,10 +8724,10 @@
         <v>1235</v>
       </c>
       <c r="I171" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1912</v>
       </c>
@@ -8747,10 +8750,10 @@
         <v>1235</v>
       </c>
       <c r="I172" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1912</v>
       </c>
@@ -8779,7 +8782,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1912</v>
       </c>
@@ -8808,7 +8811,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1912</v>
       </c>
@@ -8837,7 +8840,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1912</v>
       </c>
@@ -8866,7 +8869,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1912</v>
       </c>
@@ -8895,7 +8898,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1912</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1912</v>
       </c>
@@ -8953,7 +8956,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1912</v>
       </c>
@@ -8982,7 +8985,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1912</v>
       </c>
@@ -9008,7 +9011,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1912</v>
       </c>
@@ -9034,7 +9037,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1912</v>
       </c>
@@ -9060,7 +9063,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1912</v>
       </c>
@@ -9086,7 +9089,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1912</v>
       </c>
@@ -9112,7 +9115,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1912</v>
       </c>
@@ -9138,7 +9141,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1912</v>
       </c>
@@ -9164,7 +9167,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1912</v>
       </c>
@@ -9190,7 +9193,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1912</v>
       </c>
@@ -9216,7 +9219,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1912</v>
       </c>
@@ -9242,7 +9245,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1912</v>
       </c>
@@ -9268,7 +9271,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1912</v>
       </c>
@@ -9294,7 +9297,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1912</v>
       </c>
@@ -9320,7 +9323,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1912</v>
       </c>
@@ -9346,7 +9349,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1912</v>
       </c>
@@ -9372,7 +9375,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1912</v>
       </c>
@@ -9398,7 +9401,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1912</v>
       </c>
@@ -9424,7 +9427,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1912</v>
       </c>
@@ -9450,7 +9453,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1912</v>
       </c>
@@ -9476,7 +9479,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1912</v>
       </c>
@@ -9502,7 +9505,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1912</v>
       </c>
@@ -9528,7 +9531,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1912</v>
       </c>
@@ -9554,7 +9557,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1912</v>
       </c>
@@ -9580,7 +9583,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1912</v>
       </c>
@@ -9606,7 +9609,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1912</v>
       </c>
@@ -9632,7 +9635,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1912</v>
       </c>
@@ -9658,7 +9661,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1912</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1912</v>
       </c>
@@ -9710,7 +9713,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1912</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1912</v>
       </c>
@@ -9762,7 +9765,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1912</v>
       </c>
@@ -9788,7 +9791,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1912</v>
       </c>
@@ -9814,7 +9817,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1912</v>
       </c>
@@ -9840,7 +9843,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1912</v>
       </c>
@@ -9866,7 +9869,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1912</v>
       </c>
@@ -9892,7 +9895,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1912</v>
       </c>
@@ -9918,7 +9921,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1912</v>
       </c>
@@ -9944,7 +9947,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1912</v>
       </c>
@@ -9970,7 +9973,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1912</v>
       </c>
@@ -9996,7 +9999,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1912</v>
       </c>
@@ -10022,7 +10025,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1912</v>
       </c>
@@ -10048,7 +10051,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1912</v>
       </c>
@@ -10074,7 +10077,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1912</v>
       </c>
@@ -10100,7 +10103,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1912</v>
       </c>
@@ -10126,7 +10129,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1912</v>
       </c>
@@ -10152,7 +10155,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1912</v>
       </c>
@@ -10178,7 +10181,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1912</v>
       </c>
@@ -10204,7 +10207,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1912</v>
       </c>
@@ -10230,7 +10233,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1912</v>
       </c>
@@ -10256,7 +10259,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1912</v>
       </c>
@@ -10282,7 +10285,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1912</v>
       </c>
@@ -10308,7 +10311,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1912</v>
       </c>
@@ -10334,7 +10337,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1912</v>
       </c>
@@ -10360,7 +10363,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1912</v>
       </c>
@@ -10386,7 +10389,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1912</v>
       </c>
@@ -10412,7 +10415,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1912</v>
       </c>
@@ -10441,7 +10444,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1912</v>
       </c>
@@ -10470,7 +10473,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1912</v>
       </c>
@@ -10496,7 +10499,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1912</v>
       </c>
@@ -10522,7 +10525,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1912</v>
       </c>
@@ -10548,7 +10551,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1912</v>
       </c>
@@ -10574,7 +10577,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1912</v>
       </c>
@@ -10600,7 +10603,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1912</v>
       </c>
@@ -10626,7 +10629,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1912</v>
       </c>
@@ -10652,7 +10655,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1912</v>
       </c>
@@ -10678,7 +10681,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1912</v>
       </c>
@@ -10707,7 +10710,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1912</v>
       </c>
@@ -10736,7 +10739,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1912</v>
       </c>
@@ -10762,7 +10765,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1912</v>
       </c>
@@ -10788,7 +10791,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1912</v>
       </c>
@@ -10814,7 +10817,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1912</v>
       </c>
@@ -10840,7 +10843,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1912</v>
       </c>
@@ -10866,7 +10869,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1912</v>
       </c>
@@ -10892,7 +10895,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1912</v>
       </c>
@@ -10918,7 +10921,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1912</v>
       </c>
@@ -10944,7 +10947,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1912</v>
       </c>
@@ -10970,7 +10973,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1912</v>
       </c>
@@ -10996,7 +10999,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1912</v>
       </c>
@@ -11022,7 +11025,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1912</v>
       </c>
@@ -11048,7 +11051,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1912</v>
       </c>
@@ -11074,7 +11077,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1912</v>
       </c>
@@ -11100,7 +11103,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1912</v>
       </c>
@@ -11126,7 +11129,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1912</v>
       </c>
@@ -11152,7 +11155,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1912</v>
       </c>
@@ -11178,7 +11181,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1912</v>
       </c>
@@ -11204,7 +11207,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1912</v>
       </c>
@@ -11230,7 +11233,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1912</v>
       </c>
@@ -11256,7 +11259,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1912</v>
       </c>
@@ -11282,7 +11285,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1912</v>
       </c>
@@ -11308,7 +11311,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1912</v>
       </c>
@@ -11334,7 +11337,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1912</v>
       </c>
@@ -11360,7 +11363,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1912</v>
       </c>
@@ -11386,7 +11389,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1912</v>
       </c>
@@ -11412,7 +11415,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1912</v>
       </c>
@@ -11438,7 +11441,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1912</v>
       </c>
@@ -11464,7 +11467,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1912</v>
       </c>
@@ -11490,7 +11493,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1912</v>
       </c>
@@ -11516,7 +11519,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1912</v>
       </c>
@@ -11542,7 +11545,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1912</v>
       </c>
@@ -11571,7 +11574,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1912</v>
       </c>
@@ -11597,7 +11600,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1912</v>
       </c>
@@ -11626,7 +11629,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1912</v>
       </c>
@@ -11652,7 +11655,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1912</v>
       </c>
@@ -11678,7 +11681,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1912</v>
       </c>
@@ -11704,7 +11707,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1912</v>
       </c>
@@ -11730,7 +11733,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1912</v>
       </c>
@@ -11756,7 +11759,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1912</v>
       </c>
@@ -11782,7 +11785,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1912</v>
       </c>
@@ -11808,7 +11811,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1912</v>
       </c>
@@ -11834,7 +11837,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1912</v>
       </c>
@@ -11860,7 +11863,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1912</v>
       </c>
@@ -11886,7 +11889,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1912</v>
       </c>
@@ -11912,7 +11915,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1912</v>
       </c>
@@ -11938,7 +11941,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1912</v>
       </c>
@@ -11964,7 +11967,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1912</v>
       </c>
@@ -11990,7 +11993,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1912</v>
       </c>
@@ -12016,7 +12019,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1912</v>
       </c>
@@ -12042,7 +12045,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1912</v>
       </c>
@@ -12068,7 +12071,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1912</v>
       </c>
@@ -12094,7 +12097,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1912</v>
       </c>
@@ -12120,7 +12123,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1912</v>
       </c>
@@ -12146,7 +12149,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1912</v>
       </c>
@@ -12172,7 +12175,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1912</v>
       </c>
@@ -12198,7 +12201,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1912</v>
       </c>
@@ -12224,7 +12227,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1912</v>
       </c>
@@ -12250,7 +12253,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1912</v>
       </c>
@@ -12276,7 +12279,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1912</v>
       </c>
@@ -12302,7 +12305,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1912</v>
       </c>
@@ -12328,7 +12331,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1912</v>
       </c>
@@ -12357,7 +12360,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1912</v>
       </c>
@@ -12383,7 +12386,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1912</v>
       </c>
@@ -12409,7 +12412,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1912</v>
       </c>
@@ -12435,7 +12438,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1912</v>
       </c>
@@ -12461,7 +12464,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1912</v>
       </c>
@@ -12487,7 +12490,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1912</v>
       </c>
@@ -12513,7 +12516,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1912</v>
       </c>
@@ -12539,7 +12542,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1912</v>
       </c>
@@ -12565,7 +12568,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1912</v>
       </c>
@@ -12591,7 +12594,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1912</v>
       </c>
@@ -12617,7 +12620,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1912</v>
       </c>
@@ -12646,7 +12649,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1912</v>
       </c>
@@ -12672,7 +12675,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1912</v>
       </c>
@@ -12698,7 +12701,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1912</v>
       </c>
@@ -12724,7 +12727,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1912</v>
       </c>
@@ -12750,7 +12753,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1912</v>
       </c>
@@ -12776,7 +12779,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1912</v>
       </c>
@@ -12802,7 +12805,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1912</v>
       </c>
@@ -12828,7 +12831,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1912</v>
       </c>
@@ -12854,7 +12857,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1912</v>
       </c>
@@ -12880,7 +12883,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1912</v>
       </c>
@@ -12906,7 +12909,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1912</v>
       </c>
@@ -12932,7 +12935,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1912</v>
       </c>
@@ -12958,7 +12961,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1912</v>
       </c>
@@ -12984,7 +12987,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1912</v>
       </c>
@@ -13010,7 +13013,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1912</v>
       </c>
@@ -13039,7 +13042,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1912</v>
       </c>
@@ -13068,7 +13071,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1912</v>
       </c>
@@ -13097,7 +13100,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1912</v>
       </c>
@@ -13123,7 +13126,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1912</v>
       </c>
@@ -13149,7 +13152,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1912</v>
       </c>
@@ -13175,7 +13178,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1912</v>
       </c>
@@ -13201,7 +13204,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1912</v>
       </c>
@@ -13227,7 +13230,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1912</v>
       </c>
@@ -13253,7 +13256,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1912</v>
       </c>
@@ -13279,7 +13282,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1912</v>
       </c>
@@ -13305,7 +13308,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1912</v>
       </c>
@@ -13337,7 +13340,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1912</v>
       </c>
@@ -13363,7 +13366,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1912</v>
       </c>
@@ -13389,7 +13392,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1912</v>
       </c>
@@ -13421,7 +13424,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1912</v>
       </c>
@@ -13450,7 +13453,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1912</v>
       </c>
@@ -13479,7 +13482,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1912</v>
       </c>
@@ -13508,7 +13511,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1912</v>
       </c>
@@ -13534,7 +13537,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1912</v>
       </c>
@@ -13560,7 +13563,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1912</v>
       </c>
@@ -13586,7 +13589,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1912</v>
       </c>
@@ -13612,7 +13615,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1912</v>
       </c>
@@ -13638,7 +13641,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1912</v>
       </c>
@@ -13664,7 +13667,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1912</v>
       </c>
@@ -13690,7 +13693,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1912</v>
       </c>
@@ -13716,7 +13719,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1912</v>
       </c>
@@ -13742,7 +13745,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1912</v>
       </c>
@@ -13768,7 +13771,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1912</v>
       </c>
@@ -13794,7 +13797,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1912</v>
       </c>
@@ -13820,7 +13823,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1912</v>
       </c>
@@ -13846,7 +13849,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1912</v>
       </c>
@@ -13872,7 +13875,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1912</v>
       </c>
@@ -13901,7 +13904,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1912</v>
       </c>
@@ -13930,7 +13933,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1912</v>
       </c>
@@ -13959,7 +13962,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1912</v>
       </c>
@@ -13988,7 +13991,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1912</v>
       </c>
@@ -14017,7 +14020,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1912</v>
       </c>
@@ -14046,7 +14049,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1912</v>
       </c>
@@ -14075,7 +14078,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1912</v>
       </c>
@@ -14104,7 +14107,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1912</v>
       </c>
@@ -14133,7 +14136,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1912</v>
       </c>
@@ -14159,7 +14162,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1912</v>
       </c>
@@ -14185,7 +14188,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1912</v>
       </c>
@@ -14211,7 +14214,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1912</v>
       </c>
@@ -14237,7 +14240,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1912</v>
       </c>
@@ -14263,7 +14266,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1912</v>
       </c>
@@ -14289,7 +14292,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1912</v>
       </c>
@@ -14315,7 +14318,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1912</v>
       </c>
@@ -14341,7 +14344,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1912</v>
       </c>
@@ -14367,7 +14370,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1912</v>
       </c>
@@ -14393,7 +14396,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1912</v>
       </c>
@@ -14419,7 +14422,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1912</v>
       </c>
@@ -14445,7 +14448,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1912</v>
       </c>
@@ -14471,7 +14474,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1912</v>
       </c>
@@ -14497,7 +14500,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1912</v>
       </c>
@@ -14523,7 +14526,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1912</v>
       </c>
@@ -14549,7 +14552,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1912</v>
       </c>
@@ -14575,7 +14578,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1912</v>
       </c>
@@ -14601,7 +14604,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1912</v>
       </c>
@@ -14627,7 +14630,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1912</v>
       </c>
@@ -14653,7 +14656,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1912</v>
       </c>
@@ -14679,7 +14682,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1912</v>
       </c>
@@ -14705,7 +14708,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1912</v>
       </c>
@@ -14731,7 +14734,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1912</v>
       </c>
@@ -14757,7 +14760,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1912</v>
       </c>
@@ -14783,7 +14786,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1912</v>
       </c>
@@ -14812,7 +14815,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1912</v>
       </c>
@@ -14838,7 +14841,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1912</v>
       </c>
@@ -14864,7 +14867,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1912</v>
       </c>
@@ -14890,7 +14893,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1912</v>
       </c>
@@ -14916,7 +14919,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1912</v>
       </c>
@@ -14942,7 +14945,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1912</v>
       </c>
@@ -14968,7 +14971,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1912</v>
       </c>
@@ -14994,7 +14997,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1912</v>
       </c>
@@ -15020,7 +15023,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1912</v>
       </c>
@@ -15046,7 +15049,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1912</v>
       </c>
@@ -15072,7 +15075,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1912</v>
       </c>
@@ -15098,7 +15101,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1912</v>
       </c>
@@ -15124,7 +15127,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1912</v>
       </c>
@@ -15150,7 +15153,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1912</v>
       </c>
@@ -15176,7 +15179,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1912</v>
       </c>
@@ -15202,7 +15205,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1912</v>
       </c>

--- a/data-migration/xlsx_1900-/1912_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1912_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F449161-3B03-43D6-990A-926DDA43C2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A50F456-2093-4572-91AC-4DA719196089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="1269">
   <si>
     <t>Sommer</t>
   </si>
@@ -3674,9 +3674,6 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>bretscher_k</t>
   </si>
   <si>
@@ -3689,9 +3686,6 @@
     <t>heierli_j</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>koehler_l1</t>
   </si>
   <si>
@@ -3701,12 +3695,6 @@
     <t>bachmann_g</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>cloetta_m</t>
   </si>
   <si>
@@ -3725,9 +3713,6 @@
     <t>schulthess_w</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -3840,6 +3825,21 @@
   </si>
   <si>
     <t>nager_fr</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3879,7 +3879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4183,11 +4183,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E150" workbookViewId="0">
-      <selection activeCell="H163" sqref="H163"/>
+    <sheetView tabSelected="1" topLeftCell="G77" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="19.109375" customWidth="1"/>
     <col min="5" max="5" width="41.5546875" customWidth="1"/>
@@ -4208,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -4217,10 +4217,10 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>1218</v>
+        <v>1266</v>
       </c>
       <c r="I1" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4234,7 +4234,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F2" t="s">
         <v>422</v>
@@ -4243,10 +4243,10 @@
         <v>832</v>
       </c>
       <c r="H2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="I2" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4260,7 +4260,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F3" t="s">
         <v>423</v>
@@ -4272,10 +4272,10 @@
         <v>1103</v>
       </c>
       <c r="I3" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J3" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F4" t="s">
         <v>424</v>
@@ -4301,10 +4301,10 @@
         <v>1103</v>
       </c>
       <c r="I4" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J4" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4318,7 +4318,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F5" t="s">
         <v>425</v>
@@ -4330,10 +4330,10 @@
         <v>1103</v>
       </c>
       <c r="I5" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J5" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4347,7 +4347,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F6" t="s">
         <v>426</v>
@@ -4356,10 +4356,10 @@
         <v>836</v>
       </c>
       <c r="H6" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="I6" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4373,7 +4373,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F7" t="s">
         <v>427</v>
@@ -4385,7 +4385,7 @@
         <v>1104</v>
       </c>
       <c r="I7" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4399,7 +4399,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F8" t="s">
         <v>428</v>
@@ -4411,7 +4411,7 @@
         <v>1105</v>
       </c>
       <c r="I8" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4425,7 +4425,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F9" t="s">
         <v>429</v>
@@ -4437,7 +4437,7 @@
         <v>1104</v>
       </c>
       <c r="I9" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4451,7 +4451,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F10" t="s">
         <v>430</v>
@@ -4463,7 +4463,7 @@
         <v>1105</v>
       </c>
       <c r="I10" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4477,7 +4477,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F11" t="s">
         <v>431</v>
@@ -4486,10 +4486,10 @@
         <v>840</v>
       </c>
       <c r="H11" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="I11" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4503,7 +4503,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F12" t="s">
         <v>432</v>
@@ -4515,7 +4515,7 @@
         <v>1105</v>
       </c>
       <c r="I12" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4529,7 +4529,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F13" t="s">
         <v>433</v>
@@ -4541,7 +4541,7 @@
         <v>1102</v>
       </c>
       <c r="I13" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4555,7 +4555,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F14" t="s">
         <v>434</v>
@@ -4567,7 +4567,7 @@
         <v>1102</v>
       </c>
       <c r="I14" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4581,7 +4581,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F15" t="s">
         <v>435</v>
@@ -4593,7 +4593,7 @@
         <v>1102</v>
       </c>
       <c r="I15" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4607,7 +4607,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F16" t="s">
         <v>436</v>
@@ -4616,10 +4616,10 @@
         <v>845</v>
       </c>
       <c r="H16" t="s">
-        <v>1218</v>
+        <v>1266</v>
       </c>
       <c r="I16" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4633,7 +4633,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F17" t="s">
         <v>437</v>
@@ -4645,7 +4645,7 @@
         <v>1106</v>
       </c>
       <c r="I17" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4659,7 +4659,7 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F18" t="s">
         <v>438</v>
@@ -4671,7 +4671,7 @@
         <v>1106</v>
       </c>
       <c r="I18" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4685,7 +4685,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F19" t="s">
         <v>439</v>
@@ -4697,7 +4697,7 @@
         <v>1106</v>
       </c>
       <c r="I19" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4711,7 +4711,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F20" t="s">
         <v>440</v>
@@ -4723,7 +4723,7 @@
         <v>1106</v>
       </c>
       <c r="I20" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4737,7 +4737,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F21" t="s">
         <v>441</v>
@@ -4746,10 +4746,10 @@
         <v>849</v>
       </c>
       <c r="H21" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="I21" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4763,7 +4763,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F22" t="s">
         <v>442</v>
@@ -4775,7 +4775,10 @@
         <v>1103</v>
       </c>
       <c r="I22" t="s">
-        <v>1252</v>
+        <v>1247</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4789,7 +4792,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F23" t="s">
         <v>443</v>
@@ -4801,7 +4804,7 @@
         <v>1105</v>
       </c>
       <c r="I23" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4815,7 +4818,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F24" t="s">
         <v>444</v>
@@ -4824,10 +4827,10 @@
         <v>852</v>
       </c>
       <c r="H24" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="I24" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4841,7 +4844,7 @@
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F25" t="s">
         <v>445</v>
@@ -4853,7 +4856,7 @@
         <v>1102</v>
       </c>
       <c r="I25" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4867,7 +4870,7 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F26" t="s">
         <v>446</v>
@@ -4876,10 +4879,10 @@
         <v>853</v>
       </c>
       <c r="H26" t="s">
-        <v>1218</v>
+        <v>1266</v>
       </c>
       <c r="I26" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4893,7 +4896,7 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F27" t="s">
         <v>447</v>
@@ -4902,10 +4905,10 @@
         <v>854</v>
       </c>
       <c r="H27" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="I27" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4919,7 +4922,7 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F28" t="s">
         <v>448</v>
@@ -4931,7 +4934,7 @@
         <v>1106</v>
       </c>
       <c r="I28" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4945,7 +4948,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F29" t="s">
         <v>449</v>
@@ -4957,7 +4960,7 @@
         <v>1107</v>
       </c>
       <c r="I29" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4971,7 +4974,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F30" t="s">
         <v>450</v>
@@ -4983,7 +4986,7 @@
         <v>1108</v>
       </c>
       <c r="I30" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4997,7 +5000,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F31" t="s">
         <v>451</v>
@@ -5009,10 +5012,10 @@
         <v>1109</v>
       </c>
       <c r="I31" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J31" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5026,7 +5029,7 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F32" t="s">
         <v>452</v>
@@ -5035,10 +5038,10 @@
         <v>859</v>
       </c>
       <c r="H32" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="I32" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5052,7 +5055,7 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F33" t="s">
         <v>453</v>
@@ -5064,7 +5067,7 @@
         <v>1108</v>
       </c>
       <c r="I33" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5078,10 +5081,10 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F34" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="G34" t="s">
         <v>861</v>
@@ -5090,7 +5093,7 @@
         <v>1110</v>
       </c>
       <c r="I34" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5104,7 +5107,7 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F35" t="s">
         <v>454</v>
@@ -5116,7 +5119,7 @@
         <v>1111</v>
       </c>
       <c r="I35" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5130,7 +5133,7 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F36" t="s">
         <v>455</v>
@@ -5142,7 +5145,7 @@
         <v>1111</v>
       </c>
       <c r="I36" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5156,7 +5159,7 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F37" t="s">
         <v>456</v>
@@ -5168,7 +5171,7 @@
         <v>1110</v>
       </c>
       <c r="I37" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5182,7 +5185,7 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F38" t="s">
         <v>457</v>
@@ -5194,7 +5197,7 @@
         <v>1110</v>
       </c>
       <c r="I38" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5208,7 +5211,7 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F39" t="s">
         <v>458</v>
@@ -5220,7 +5223,7 @@
         <v>1111</v>
       </c>
       <c r="I39" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5234,7 +5237,7 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F40" t="s">
         <v>459</v>
@@ -5246,7 +5249,7 @@
         <v>1112</v>
       </c>
       <c r="I40" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5260,7 +5263,7 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F41" t="s">
         <v>460</v>
@@ -5272,7 +5275,7 @@
         <v>1111</v>
       </c>
       <c r="I41" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5286,7 +5289,7 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F42" t="s">
         <v>461</v>
@@ -5298,7 +5301,7 @@
         <v>1112</v>
       </c>
       <c r="I42" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5312,7 +5315,7 @@
         <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F43" t="s">
         <v>462</v>
@@ -5321,10 +5324,10 @@
         <v>870</v>
       </c>
       <c r="H43" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I43" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5338,7 +5341,7 @@
         <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F44" t="s">
         <v>463</v>
@@ -5350,7 +5353,7 @@
         <v>1113</v>
       </c>
       <c r="I44" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5364,7 +5367,7 @@
         <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F45" t="s">
         <v>464</v>
@@ -5376,7 +5379,7 @@
         <v>1113</v>
       </c>
       <c r="I45" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5390,7 +5393,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F46" t="s">
         <v>465</v>
@@ -5399,10 +5402,10 @@
         <v>873</v>
       </c>
       <c r="H46" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I46" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5416,7 +5419,7 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F47" t="s">
         <v>466</v>
@@ -5425,10 +5428,10 @@
         <v>874</v>
       </c>
       <c r="H47" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I47" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5442,7 +5445,7 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F48" t="s">
         <v>467</v>
@@ -5454,7 +5457,7 @@
         <v>1114</v>
       </c>
       <c r="I48" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5468,7 +5471,7 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F49" t="s">
         <v>468</v>
@@ -5480,10 +5483,10 @@
         <v>1115</v>
       </c>
       <c r="I49" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J49" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5497,7 +5500,7 @@
         <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F50" t="s">
         <v>469</v>
@@ -5509,7 +5512,7 @@
         <v>1116</v>
       </c>
       <c r="I50" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5523,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F51" t="s">
         <v>470</v>
@@ -5535,10 +5538,10 @@
         <v>1115</v>
       </c>
       <c r="I51" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J51" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5552,7 +5555,7 @@
         <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F52" t="s">
         <v>471</v>
@@ -5564,7 +5567,7 @@
         <v>1116</v>
       </c>
       <c r="I52" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5578,7 +5581,7 @@
         <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F53" t="s">
         <v>472</v>
@@ -5590,7 +5593,7 @@
         <v>1117</v>
       </c>
       <c r="I53" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5604,7 +5607,7 @@
         <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F54" t="s">
         <v>473</v>
@@ -5616,7 +5619,7 @@
         <v>1117</v>
       </c>
       <c r="I54" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5630,7 +5633,7 @@
         <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F55" t="s">
         <v>474</v>
@@ -5639,10 +5642,10 @@
         <v>881</v>
       </c>
       <c r="H55" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I55" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5656,7 +5659,7 @@
         <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F56" t="s">
         <v>475</v>
@@ -5665,10 +5668,10 @@
         <v>882</v>
       </c>
       <c r="H56" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I56" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5682,7 +5685,7 @@
         <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F57" t="s">
         <v>476</v>
@@ -5694,7 +5697,7 @@
         <v>1119</v>
       </c>
       <c r="I57" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5708,7 +5711,7 @@
         <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F58" t="s">
         <v>477</v>
@@ -5720,7 +5723,7 @@
         <v>1120</v>
       </c>
       <c r="I58" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5734,7 +5737,7 @@
         <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F59" t="s">
         <v>478</v>
@@ -5746,7 +5749,7 @@
         <v>1107</v>
       </c>
       <c r="I59" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5760,7 +5763,7 @@
         <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F60" t="s">
         <v>479</v>
@@ -5772,10 +5775,10 @@
         <v>1109</v>
       </c>
       <c r="I60" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J60" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5789,7 +5792,7 @@
         <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F61" t="s">
         <v>480</v>
@@ -5801,7 +5804,7 @@
         <v>1108</v>
       </c>
       <c r="I61" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5815,7 +5818,7 @@
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F62" t="s">
         <v>481</v>
@@ -5827,7 +5830,7 @@
         <v>1110</v>
       </c>
       <c r="I62" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5841,7 +5844,7 @@
         <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F63" t="s">
         <v>482</v>
@@ -5853,7 +5856,7 @@
         <v>1111</v>
       </c>
       <c r="I63" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5867,7 +5870,7 @@
         <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F64" t="s">
         <v>483</v>
@@ -5879,7 +5882,7 @@
         <v>1121</v>
       </c>
       <c r="I64" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -5893,7 +5896,7 @@
         <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F65" t="s">
         <v>484</v>
@@ -5905,7 +5908,7 @@
         <v>1113</v>
       </c>
       <c r="I65" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -5919,7 +5922,7 @@
         <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F66" t="s">
         <v>485</v>
@@ -5931,7 +5934,7 @@
         <v>1114</v>
       </c>
       <c r="I66" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -5945,7 +5948,7 @@
         <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F67" t="s">
         <v>486</v>
@@ -5957,10 +5960,10 @@
         <v>1115</v>
       </c>
       <c r="I67" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J67" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -5974,7 +5977,7 @@
         <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F68" t="s">
         <v>487</v>
@@ -5986,7 +5989,7 @@
         <v>1116</v>
       </c>
       <c r="I68" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -6000,7 +6003,7 @@
         <v>73</v>
       </c>
       <c r="E69" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F69" t="s">
         <v>488</v>
@@ -6012,7 +6015,7 @@
         <v>1117</v>
       </c>
       <c r="I69" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -6026,7 +6029,7 @@
         <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F70" t="s">
         <v>489</v>
@@ -6035,10 +6038,10 @@
         <v>890</v>
       </c>
       <c r="H70" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I70" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -6052,7 +6055,7 @@
         <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F71" t="s">
         <v>490</v>
@@ -6061,10 +6064,10 @@
         <v>891</v>
       </c>
       <c r="H71" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I71" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -6078,7 +6081,7 @@
         <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F72" t="s">
         <v>491</v>
@@ -6090,7 +6093,7 @@
         <v>1122</v>
       </c>
       <c r="I72" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -6104,7 +6107,7 @@
         <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F73" t="s">
         <v>492</v>
@@ -6116,7 +6119,7 @@
         <v>1123</v>
       </c>
       <c r="I73" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -6130,7 +6133,7 @@
         <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F74" t="s">
         <v>493</v>
@@ -6142,7 +6145,7 @@
         <v>1123</v>
       </c>
       <c r="I74" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -6159,7 +6162,7 @@
         <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F75" t="s">
         <v>494</v>
@@ -6171,7 +6174,7 @@
         <v>1124</v>
       </c>
       <c r="I75" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -6185,7 +6188,7 @@
         <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F76" t="s">
         <v>495</v>
@@ -6197,7 +6200,7 @@
         <v>1124</v>
       </c>
       <c r="I76" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -6211,7 +6214,7 @@
         <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F77" t="s">
         <v>496</v>
@@ -6223,13 +6226,13 @@
         <v>1124</v>
       </c>
       <c r="I77" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="K77" t="s">
         <v>1125</v>
       </c>
       <c r="L77" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -6243,7 +6246,7 @@
         <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F78" t="s">
         <v>497</v>
@@ -6255,13 +6258,13 @@
         <v>1124</v>
       </c>
       <c r="I78" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="K78" t="s">
         <v>1125</v>
       </c>
       <c r="L78" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -6275,7 +6278,7 @@
         <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F79" t="s">
         <v>498</v>
@@ -6287,7 +6290,7 @@
         <v>1124</v>
       </c>
       <c r="I79" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -6304,7 +6307,7 @@
         <v>84</v>
       </c>
       <c r="E80" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F80" t="s">
         <v>499</v>
@@ -6316,7 +6319,7 @@
         <v>1125</v>
       </c>
       <c r="I80" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -6333,7 +6336,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F81" t="s">
         <v>500</v>
@@ -6345,7 +6348,7 @@
         <v>1125</v>
       </c>
       <c r="I81" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -6359,7 +6362,7 @@
         <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F82" t="s">
         <v>501</v>
@@ -6371,13 +6374,13 @@
         <v>1125</v>
       </c>
       <c r="I82" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="K82" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="L82" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -6391,7 +6394,7 @@
         <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F83" t="s">
         <v>502</v>
@@ -6403,7 +6406,7 @@
         <v>1126</v>
       </c>
       <c r="I83" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -6417,7 +6420,7 @@
         <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F84" t="s">
         <v>503</v>
@@ -6426,10 +6429,10 @@
         <v>904</v>
       </c>
       <c r="H84" t="s">
-        <v>1222</v>
+        <v>1265</v>
       </c>
       <c r="I84" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -6443,7 +6446,7 @@
         <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F85" t="s">
         <v>504</v>
@@ -6452,10 +6455,10 @@
         <v>905</v>
       </c>
       <c r="H85" t="s">
-        <v>1222</v>
+        <v>1265</v>
       </c>
       <c r="I85" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -6469,7 +6472,7 @@
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F86" t="s">
         <v>505</v>
@@ -6478,10 +6481,10 @@
         <v>899</v>
       </c>
       <c r="H86" t="s">
-        <v>1222</v>
+        <v>1265</v>
       </c>
       <c r="I86" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -6495,7 +6498,7 @@
         <v>91</v>
       </c>
       <c r="E87" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F87" t="s">
         <v>506</v>
@@ -6507,7 +6510,7 @@
         <v>1127</v>
       </c>
       <c r="I87" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -6521,7 +6524,7 @@
         <v>92</v>
       </c>
       <c r="E88" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F88" t="s">
         <v>507</v>
@@ -6533,7 +6536,7 @@
         <v>1127</v>
       </c>
       <c r="I88" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -6547,7 +6550,7 @@
         <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F89" t="s">
         <v>508</v>
@@ -6559,7 +6562,7 @@
         <v>1127</v>
       </c>
       <c r="I89" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -6573,7 +6576,7 @@
         <v>94</v>
       </c>
       <c r="E90" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F90" t="s">
         <v>509</v>
@@ -6585,7 +6588,7 @@
         <v>1127</v>
       </c>
       <c r="I90" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -6599,7 +6602,7 @@
         <v>95</v>
       </c>
       <c r="E91" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F91" t="s">
         <v>510</v>
@@ -6611,7 +6614,7 @@
         <v>1127</v>
       </c>
       <c r="I91" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -6625,7 +6628,7 @@
         <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F92" t="s">
         <v>511</v>
@@ -6637,7 +6640,7 @@
         <v>1128</v>
       </c>
       <c r="I92" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -6651,7 +6654,7 @@
         <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F93" t="s">
         <v>512</v>
@@ -6660,13 +6663,13 @@
         <v>911</v>
       </c>
       <c r="H93" t="s">
-        <v>1223</v>
+        <v>1268</v>
       </c>
       <c r="I93" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J93" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -6680,7 +6683,7 @@
         <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F94" t="s">
         <v>513</v>
@@ -6689,13 +6692,13 @@
         <v>912</v>
       </c>
       <c r="H94" t="s">
-        <v>1223</v>
+        <v>1268</v>
       </c>
       <c r="I94" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J94" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -6709,7 +6712,7 @@
         <v>99</v>
       </c>
       <c r="E95" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F95" t="s">
         <v>514</v>
@@ -6718,13 +6721,13 @@
         <v>913</v>
       </c>
       <c r="H95" t="s">
-        <v>1223</v>
+        <v>1268</v>
       </c>
       <c r="I95" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J95" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -6738,7 +6741,7 @@
         <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F96" t="s">
         <v>515</v>
@@ -6747,13 +6750,13 @@
         <v>914</v>
       </c>
       <c r="H96" t="s">
-        <v>1223</v>
+        <v>1268</v>
       </c>
       <c r="I96" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J96" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -6767,7 +6770,7 @@
         <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F97" t="s">
         <v>516</v>
@@ -6776,13 +6779,13 @@
         <v>915</v>
       </c>
       <c r="H97" t="s">
-        <v>1223</v>
+        <v>1268</v>
       </c>
       <c r="I97" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J97" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -6796,7 +6799,7 @@
         <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F98" t="s">
         <v>517</v>
@@ -6808,7 +6811,7 @@
         <v>1129</v>
       </c>
       <c r="I98" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -6822,7 +6825,7 @@
         <v>103</v>
       </c>
       <c r="E99" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F99" t="s">
         <v>518</v>
@@ -6834,7 +6837,7 @@
         <v>1129</v>
       </c>
       <c r="I99" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -6848,7 +6851,7 @@
         <v>104</v>
       </c>
       <c r="E100" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F100" t="s">
         <v>519</v>
@@ -6860,7 +6863,7 @@
         <v>1129</v>
       </c>
       <c r="I100" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -6874,7 +6877,7 @@
         <v>105</v>
       </c>
       <c r="E101" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F101" t="s">
         <v>520</v>
@@ -6886,7 +6889,7 @@
         <v>1129</v>
       </c>
       <c r="I101" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -6900,7 +6903,7 @@
         <v>106</v>
       </c>
       <c r="E102" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F102" t="s">
         <v>521</v>
@@ -6912,7 +6915,7 @@
         <v>1129</v>
       </c>
       <c r="I102" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -6926,7 +6929,7 @@
         <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F103" t="s">
         <v>522</v>
@@ -6935,10 +6938,10 @@
         <v>919</v>
       </c>
       <c r="H103" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="I103" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -6952,7 +6955,7 @@
         <v>108</v>
       </c>
       <c r="E104" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F104" t="s">
         <v>523</v>
@@ -6961,10 +6964,10 @@
         <v>920</v>
       </c>
       <c r="H104" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="I104" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -6978,7 +6981,7 @@
         <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F105" t="s">
         <v>524</v>
@@ -6990,7 +6993,7 @@
         <v>1130</v>
       </c>
       <c r="I105" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -7004,7 +7007,7 @@
         <v>110</v>
       </c>
       <c r="E106" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F106" t="s">
         <v>525</v>
@@ -7016,7 +7019,7 @@
         <v>1130</v>
       </c>
       <c r="I106" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -7030,7 +7033,7 @@
         <v>111</v>
       </c>
       <c r="E107" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F107" t="s">
         <v>526</v>
@@ -7042,7 +7045,7 @@
         <v>1130</v>
       </c>
       <c r="I107" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -7056,7 +7059,7 @@
         <v>112</v>
       </c>
       <c r="E108" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F108" t="s">
         <v>527</v>
@@ -7068,7 +7071,7 @@
         <v>1130</v>
       </c>
       <c r="I108" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -7082,7 +7085,7 @@
         <v>113</v>
       </c>
       <c r="E109" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F109" t="s">
         <v>528</v>
@@ -7091,10 +7094,10 @@
         <v>925</v>
       </c>
       <c r="H109" t="s">
-        <v>1222</v>
+        <v>1265</v>
       </c>
       <c r="I109" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -7108,7 +7111,7 @@
         <v>114</v>
       </c>
       <c r="E110" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F110" t="s">
         <v>529</v>
@@ -7117,10 +7120,10 @@
         <v>844</v>
       </c>
       <c r="H110" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I110" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -7134,7 +7137,7 @@
         <v>115</v>
       </c>
       <c r="E111" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F111" t="s">
         <v>530</v>
@@ -7146,7 +7149,7 @@
         <v>1131</v>
       </c>
       <c r="I111" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -7160,7 +7163,7 @@
         <v>116</v>
       </c>
       <c r="E112" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F112" t="s">
         <v>531</v>
@@ -7172,7 +7175,7 @@
         <v>1131</v>
       </c>
       <c r="I112" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7186,7 +7189,7 @@
         <v>117</v>
       </c>
       <c r="E113" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F113" t="s">
         <v>532</v>
@@ -7198,7 +7201,7 @@
         <v>1132</v>
       </c>
       <c r="I113" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7212,7 +7215,7 @@
         <v>118</v>
       </c>
       <c r="E114" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F114" t="s">
         <v>533</v>
@@ -7221,10 +7224,10 @@
         <v>836</v>
       </c>
       <c r="H114" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="I114" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7238,7 +7241,7 @@
         <v>119</v>
       </c>
       <c r="E115" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F115" t="s">
         <v>534</v>
@@ -7247,10 +7250,10 @@
         <v>844</v>
       </c>
       <c r="H115" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="I115" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7264,7 +7267,7 @@
         <v>120</v>
       </c>
       <c r="E116" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F116" t="s">
         <v>535</v>
@@ -7276,7 +7279,7 @@
         <v>1133</v>
       </c>
       <c r="I116" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7290,7 +7293,7 @@
         <v>121</v>
       </c>
       <c r="E117" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F117" t="s">
         <v>536</v>
@@ -7302,7 +7305,7 @@
         <v>1133</v>
       </c>
       <c r="I117" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7316,7 +7319,7 @@
         <v>122</v>
       </c>
       <c r="E118" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F118" t="s">
         <v>537</v>
@@ -7328,7 +7331,7 @@
         <v>1133</v>
       </c>
       <c r="I118" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7342,7 +7345,7 @@
         <v>123</v>
       </c>
       <c r="E119" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F119" t="s">
         <v>538</v>
@@ -7351,10 +7354,10 @@
         <v>836</v>
       </c>
       <c r="H119" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="I119" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7368,7 +7371,7 @@
         <v>124</v>
       </c>
       <c r="E120" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F120" t="s">
         <v>539</v>
@@ -7380,7 +7383,7 @@
         <v>1134</v>
       </c>
       <c r="I120" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -7394,7 +7397,7 @@
         <v>125</v>
       </c>
       <c r="E121" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F121" t="s">
         <v>540</v>
@@ -7406,7 +7409,7 @@
         <v>1134</v>
       </c>
       <c r="I121" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -7420,7 +7423,7 @@
         <v>126</v>
       </c>
       <c r="E122" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F122" t="s">
         <v>541</v>
@@ -7432,7 +7435,7 @@
         <v>1135</v>
       </c>
       <c r="I122" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -7446,7 +7449,7 @@
         <v>127</v>
       </c>
       <c r="E123" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F123" t="s">
         <v>542</v>
@@ -7458,7 +7461,7 @@
         <v>1135</v>
       </c>
       <c r="I123" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -7472,7 +7475,7 @@
         <v>128</v>
       </c>
       <c r="E124" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F124" t="s">
         <v>543</v>
@@ -7484,7 +7487,7 @@
         <v>1136</v>
       </c>
       <c r="I124" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -7498,7 +7501,7 @@
         <v>129</v>
       </c>
       <c r="E125" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F125" t="s">
         <v>544</v>
@@ -7510,7 +7513,7 @@
         <v>1136</v>
       </c>
       <c r="I125" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -7524,7 +7527,7 @@
         <v>130</v>
       </c>
       <c r="E126" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F126" t="s">
         <v>545</v>
@@ -7533,10 +7536,10 @@
         <v>932</v>
       </c>
       <c r="H126" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="I126" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -7550,7 +7553,7 @@
         <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F127" t="s">
         <v>501</v>
@@ -7559,16 +7562,16 @@
         <v>933</v>
       </c>
       <c r="H127" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="I127" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="K127" t="s">
         <v>1125</v>
       </c>
       <c r="L127" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -7582,7 +7585,7 @@
         <v>132</v>
       </c>
       <c r="E128" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F128" t="s">
         <v>546</v>
@@ -7591,16 +7594,16 @@
         <v>934</v>
       </c>
       <c r="H128" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="I128" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="K128" t="s">
         <v>1137</v>
       </c>
       <c r="L128" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -7614,7 +7617,7 @@
         <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F129" t="s">
         <v>547</v>
@@ -7626,7 +7629,7 @@
         <v>1138</v>
       </c>
       <c r="I129" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -7640,7 +7643,7 @@
         <v>134</v>
       </c>
       <c r="E130" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F130" t="s">
         <v>548</v>
@@ -7652,7 +7655,7 @@
         <v>1137</v>
       </c>
       <c r="I130" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -7666,7 +7669,7 @@
         <v>135</v>
       </c>
       <c r="E131" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F131" t="s">
         <v>546</v>
@@ -7678,13 +7681,13 @@
         <v>1137</v>
       </c>
       <c r="I131" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="K131" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="L131" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -7698,7 +7701,7 @@
         <v>136</v>
       </c>
       <c r="E132" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F132" t="s">
         <v>549</v>
@@ -7710,7 +7713,7 @@
         <v>1139</v>
       </c>
       <c r="I132" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -7724,7 +7727,7 @@
         <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F133" t="s">
         <v>550</v>
@@ -7736,7 +7739,7 @@
         <v>1139</v>
       </c>
       <c r="I133" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -7750,7 +7753,7 @@
         <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F134" t="s">
         <v>551</v>
@@ -7759,10 +7762,10 @@
         <v>844</v>
       </c>
       <c r="H134" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="I134" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -7776,7 +7779,7 @@
         <v>139</v>
       </c>
       <c r="E135" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F135" t="s">
         <v>552</v>
@@ -7788,7 +7791,7 @@
         <v>1140</v>
       </c>
       <c r="I135" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -7802,7 +7805,7 @@
         <v>140</v>
       </c>
       <c r="E136" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F136" t="s">
         <v>553</v>
@@ -7814,7 +7817,7 @@
         <v>1141</v>
       </c>
       <c r="I136" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -7828,7 +7831,7 @@
         <v>141</v>
       </c>
       <c r="E137" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F137" t="s">
         <v>554</v>
@@ -7840,7 +7843,7 @@
         <v>1142</v>
       </c>
       <c r="I137" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -7854,7 +7857,7 @@
         <v>142</v>
       </c>
       <c r="E138" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F138" t="s">
         <v>555</v>
@@ -7866,7 +7869,7 @@
         <v>1143</v>
       </c>
       <c r="I138" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -7880,7 +7883,7 @@
         <v>143</v>
       </c>
       <c r="E139" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F139" t="s">
         <v>556</v>
@@ -7892,7 +7895,7 @@
         <v>1144</v>
       </c>
       <c r="I139" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -7906,7 +7909,7 @@
         <v>144</v>
       </c>
       <c r="E140" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F140" t="s">
         <v>557</v>
@@ -7918,7 +7921,7 @@
         <v>1145</v>
       </c>
       <c r="I140" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -7932,7 +7935,7 @@
         <v>145</v>
       </c>
       <c r="E141" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F141" t="s">
         <v>558</v>
@@ -7944,7 +7947,7 @@
         <v>1145</v>
       </c>
       <c r="I141" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -7958,7 +7961,7 @@
         <v>146</v>
       </c>
       <c r="E142" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F142" t="s">
         <v>559</v>
@@ -7970,7 +7973,7 @@
         <v>1146</v>
       </c>
       <c r="I142" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -7984,7 +7987,7 @@
         <v>147</v>
       </c>
       <c r="E143" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F143" t="s">
         <v>560</v>
@@ -7996,7 +7999,7 @@
         <v>1146</v>
       </c>
       <c r="I143" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -8010,7 +8013,7 @@
         <v>148</v>
       </c>
       <c r="E144" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F144" t="s">
         <v>561</v>
@@ -8019,10 +8022,10 @@
         <v>941</v>
       </c>
       <c r="H144" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="I144" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8036,7 +8039,7 @@
         <v>149</v>
       </c>
       <c r="E145" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F145" t="s">
         <v>562</v>
@@ -8045,10 +8048,10 @@
         <v>942</v>
       </c>
       <c r="H145" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="I145" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8062,7 +8065,7 @@
         <v>150</v>
       </c>
       <c r="E146" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F146" t="s">
         <v>563</v>
@@ -8074,7 +8077,7 @@
         <v>1147</v>
       </c>
       <c r="I146" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8088,7 +8091,7 @@
         <v>151</v>
       </c>
       <c r="E147" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F147" t="s">
         <v>564</v>
@@ -8100,7 +8103,7 @@
         <v>1147</v>
       </c>
       <c r="I147" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8114,7 +8117,7 @@
         <v>152</v>
       </c>
       <c r="E148" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F148" t="s">
         <v>565</v>
@@ -8123,10 +8126,10 @@
         <v>945</v>
       </c>
       <c r="H148" t="s">
-        <v>1230</v>
+        <v>1264</v>
       </c>
       <c r="I148" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8140,7 +8143,7 @@
         <v>153</v>
       </c>
       <c r="E149" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F149" t="s">
         <v>566</v>
@@ -8149,10 +8152,10 @@
         <v>946</v>
       </c>
       <c r="H149" t="s">
-        <v>1230</v>
+        <v>1264</v>
       </c>
       <c r="I149" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8166,7 +8169,7 @@
         <v>154</v>
       </c>
       <c r="E150" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F150" t="s">
         <v>567</v>
@@ -8175,10 +8178,10 @@
         <v>947</v>
       </c>
       <c r="H150" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="I150" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8192,7 +8195,7 @@
         <v>155</v>
       </c>
       <c r="E151" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F151" t="s">
         <v>568</v>
@@ -8204,7 +8207,7 @@
         <v>1148</v>
       </c>
       <c r="I151" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8218,7 +8221,7 @@
         <v>156</v>
       </c>
       <c r="E152" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F152" t="s">
         <v>569</v>
@@ -8230,7 +8233,7 @@
         <v>1148</v>
       </c>
       <c r="I152" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8244,7 +8247,7 @@
         <v>157</v>
       </c>
       <c r="E153" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F153" t="s">
         <v>570</v>
@@ -8256,7 +8259,7 @@
         <v>1149</v>
       </c>
       <c r="I153" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8270,7 +8273,7 @@
         <v>158</v>
       </c>
       <c r="E154" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F154" t="s">
         <v>571</v>
@@ -8279,10 +8282,10 @@
         <v>844</v>
       </c>
       <c r="H154" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I154" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8296,7 +8299,7 @@
         <v>159</v>
       </c>
       <c r="E155" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F155" t="s">
         <v>572</v>
@@ -8308,7 +8311,7 @@
         <v>1150</v>
       </c>
       <c r="I155" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8322,7 +8325,7 @@
         <v>160</v>
       </c>
       <c r="E156" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F156" t="s">
         <v>573</v>
@@ -8334,7 +8337,7 @@
         <v>1150</v>
       </c>
       <c r="I156" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8348,7 +8351,7 @@
         <v>161</v>
       </c>
       <c r="E157" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F157" t="s">
         <v>574</v>
@@ -8360,7 +8363,7 @@
         <v>1150</v>
       </c>
       <c r="I157" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8374,7 +8377,7 @@
         <v>162</v>
       </c>
       <c r="E158" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F158" t="s">
         <v>575</v>
@@ -8386,7 +8389,7 @@
         <v>1150</v>
       </c>
       <c r="I158" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8400,7 +8403,7 @@
         <v>163</v>
       </c>
       <c r="E159" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F159" t="s">
         <v>576</v>
@@ -8412,7 +8415,7 @@
         <v>1150</v>
       </c>
       <c r="I159" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8426,7 +8429,7 @@
         <v>164</v>
       </c>
       <c r="E160" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F160" t="s">
         <v>577</v>
@@ -8438,7 +8441,7 @@
         <v>1151</v>
       </c>
       <c r="I160" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -8452,7 +8455,7 @@
         <v>165</v>
       </c>
       <c r="E161" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F161" t="s">
         <v>578</v>
@@ -8461,10 +8464,10 @@
         <v>844</v>
       </c>
       <c r="H161" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="I161" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -8478,7 +8481,7 @@
         <v>166</v>
       </c>
       <c r="E162" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F162" t="s">
         <v>579</v>
@@ -8487,10 +8490,10 @@
         <v>951</v>
       </c>
       <c r="H162" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="I162" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -8504,7 +8507,7 @@
         <v>167</v>
       </c>
       <c r="E163" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F163" t="s">
         <v>580</v>
@@ -8513,10 +8516,10 @@
         <v>952</v>
       </c>
       <c r="H163" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="I163" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -8530,7 +8533,7 @@
         <v>168</v>
       </c>
       <c r="E164" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F164" t="s">
         <v>581</v>
@@ -8539,10 +8542,10 @@
         <v>953</v>
       </c>
       <c r="H164" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="I164" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -8556,7 +8559,7 @@
         <v>169</v>
       </c>
       <c r="E165" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F165" t="s">
         <v>582</v>
@@ -8568,7 +8571,7 @@
         <v>1152</v>
       </c>
       <c r="I165" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -8582,7 +8585,7 @@
         <v>170</v>
       </c>
       <c r="E166" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F166" t="s">
         <v>583</v>
@@ -8594,7 +8597,7 @@
         <v>1152</v>
       </c>
       <c r="I166" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -8608,7 +8611,7 @@
         <v>171</v>
       </c>
       <c r="E167" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F167" t="s">
         <v>584</v>
@@ -8620,7 +8623,7 @@
         <v>1153</v>
       </c>
       <c r="I167" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -8634,7 +8637,7 @@
         <v>172</v>
       </c>
       <c r="E168" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F168" t="s">
         <v>585</v>
@@ -8646,7 +8649,7 @@
         <v>1153</v>
       </c>
       <c r="I168" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -8660,7 +8663,7 @@
         <v>173</v>
       </c>
       <c r="E169" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F169" t="s">
         <v>586</v>
@@ -8672,7 +8675,7 @@
         <v>1153</v>
       </c>
       <c r="I169" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -8686,7 +8689,7 @@
         <v>174</v>
       </c>
       <c r="E170" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F170" t="s">
         <v>587</v>
@@ -8698,7 +8701,7 @@
         <v>1153</v>
       </c>
       <c r="I170" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -8712,7 +8715,7 @@
         <v>175</v>
       </c>
       <c r="E171" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F171" t="s">
         <v>588</v>
@@ -8721,10 +8724,10 @@
         <v>960</v>
       </c>
       <c r="H171" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="I171" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -8738,7 +8741,7 @@
         <v>176</v>
       </c>
       <c r="E172" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F172" t="s">
         <v>589</v>
@@ -8747,10 +8750,10 @@
         <v>961</v>
       </c>
       <c r="H172" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="I172" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -8764,7 +8767,7 @@
         <v>177</v>
       </c>
       <c r="E173" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F173" t="s">
         <v>590</v>
@@ -8776,10 +8779,10 @@
         <v>1154</v>
       </c>
       <c r="I173" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J173" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -8793,7 +8796,7 @@
         <v>178</v>
       </c>
       <c r="E174" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F174" t="s">
         <v>591</v>
@@ -8805,10 +8808,10 @@
         <v>1154</v>
       </c>
       <c r="I174" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J174" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -8822,7 +8825,7 @@
         <v>179</v>
       </c>
       <c r="E175" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F175" t="s">
         <v>592</v>
@@ -8834,10 +8837,10 @@
         <v>1154</v>
       </c>
       <c r="I175" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J175" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -8851,7 +8854,7 @@
         <v>180</v>
       </c>
       <c r="E176" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F176" t="s">
         <v>495</v>
@@ -8863,10 +8866,10 @@
         <v>1154</v>
       </c>
       <c r="I176" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J176" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8880,7 +8883,7 @@
         <v>181</v>
       </c>
       <c r="E177" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F177" t="s">
         <v>593</v>
@@ -8892,10 +8895,10 @@
         <v>1154</v>
       </c>
       <c r="I177" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J177" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8909,7 +8912,7 @@
         <v>182</v>
       </c>
       <c r="E178" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F178" t="s">
         <v>594</v>
@@ -8921,10 +8924,10 @@
         <v>1154</v>
       </c>
       <c r="I178" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J178" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8938,7 +8941,7 @@
         <v>183</v>
       </c>
       <c r="E179" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F179" t="s">
         <v>595</v>
@@ -8950,10 +8953,10 @@
         <v>1154</v>
       </c>
       <c r="I179" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J179" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8967,7 +8970,7 @@
         <v>184</v>
       </c>
       <c r="E180" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F180" t="s">
         <v>596</v>
@@ -8979,10 +8982,10 @@
         <v>1154</v>
       </c>
       <c r="I180" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J180" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8996,7 +8999,7 @@
         <v>185</v>
       </c>
       <c r="E181" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F181" t="s">
         <v>597</v>
@@ -9008,7 +9011,7 @@
         <v>1150</v>
       </c>
       <c r="I181" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -9022,7 +9025,7 @@
         <v>186</v>
       </c>
       <c r="E182" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F182" t="s">
         <v>598</v>
@@ -9034,7 +9037,7 @@
         <v>1150</v>
       </c>
       <c r="I182" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -9048,7 +9051,7 @@
         <v>187</v>
       </c>
       <c r="E183" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F183" t="s">
         <v>599</v>
@@ -9060,7 +9063,7 @@
         <v>1150</v>
       </c>
       <c r="I183" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -9074,7 +9077,7 @@
         <v>188</v>
       </c>
       <c r="E184" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F184" t="s">
         <v>600</v>
@@ -9086,7 +9089,7 @@
         <v>1155</v>
       </c>
       <c r="I184" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -9100,7 +9103,7 @@
         <v>189</v>
       </c>
       <c r="E185" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F185" t="s">
         <v>601</v>
@@ -9112,7 +9115,7 @@
         <v>1155</v>
       </c>
       <c r="I185" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -9126,7 +9129,7 @@
         <v>190</v>
       </c>
       <c r="E186" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F186" t="s">
         <v>602</v>
@@ -9138,7 +9141,7 @@
         <v>1155</v>
       </c>
       <c r="I186" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -9152,7 +9155,7 @@
         <v>191</v>
       </c>
       <c r="E187" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F187" t="s">
         <v>603</v>
@@ -9164,7 +9167,7 @@
         <v>1155</v>
       </c>
       <c r="I187" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -9178,7 +9181,7 @@
         <v>192</v>
       </c>
       <c r="E188" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F188" t="s">
         <v>604</v>
@@ -9190,7 +9193,7 @@
         <v>1155</v>
       </c>
       <c r="I188" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -9204,7 +9207,7 @@
         <v>193</v>
       </c>
       <c r="E189" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F189" t="s">
         <v>605</v>
@@ -9216,7 +9219,7 @@
         <v>1155</v>
       </c>
       <c r="I189" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -9230,7 +9233,7 @@
         <v>194</v>
       </c>
       <c r="E190" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F190" t="s">
         <v>606</v>
@@ -9242,7 +9245,7 @@
         <v>1156</v>
       </c>
       <c r="I190" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -9256,7 +9259,7 @@
         <v>195</v>
       </c>
       <c r="E191" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F191" t="s">
         <v>607</v>
@@ -9268,7 +9271,7 @@
         <v>1156</v>
       </c>
       <c r="I191" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -9282,7 +9285,7 @@
         <v>196</v>
       </c>
       <c r="E192" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F192" t="s">
         <v>549</v>
@@ -9294,7 +9297,7 @@
         <v>1157</v>
       </c>
       <c r="I192" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -9308,7 +9311,7 @@
         <v>197</v>
       </c>
       <c r="E193" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F193" t="s">
         <v>608</v>
@@ -9320,7 +9323,7 @@
         <v>1157</v>
       </c>
       <c r="I193" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -9334,7 +9337,7 @@
         <v>198</v>
       </c>
       <c r="E194" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F194" t="s">
         <v>609</v>
@@ -9346,7 +9349,7 @@
         <v>1157</v>
       </c>
       <c r="I194" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -9360,7 +9363,7 @@
         <v>199</v>
       </c>
       <c r="E195" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F195" t="s">
         <v>610</v>
@@ -9372,7 +9375,7 @@
         <v>1157</v>
       </c>
       <c r="I195" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -9386,7 +9389,7 @@
         <v>200</v>
       </c>
       <c r="E196" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F196" t="s">
         <v>611</v>
@@ -9398,7 +9401,7 @@
         <v>1157</v>
       </c>
       <c r="I196" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -9412,7 +9415,7 @@
         <v>201</v>
       </c>
       <c r="E197" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F197" t="s">
         <v>612</v>
@@ -9424,7 +9427,7 @@
         <v>1158</v>
       </c>
       <c r="I197" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -9438,7 +9441,7 @@
         <v>202</v>
       </c>
       <c r="E198" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F198" t="s">
         <v>613</v>
@@ -9450,7 +9453,7 @@
         <v>1158</v>
       </c>
       <c r="I198" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -9464,7 +9467,7 @@
         <v>203</v>
       </c>
       <c r="E199" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F199" t="s">
         <v>614</v>
@@ -9476,7 +9479,7 @@
         <v>1158</v>
       </c>
       <c r="I199" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -9490,7 +9493,7 @@
         <v>204</v>
       </c>
       <c r="E200" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F200" t="s">
         <v>615</v>
@@ -9502,7 +9505,7 @@
         <v>1158</v>
       </c>
       <c r="I200" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -9516,7 +9519,7 @@
         <v>205</v>
       </c>
       <c r="E201" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F201" t="s">
         <v>616</v>
@@ -9528,7 +9531,7 @@
         <v>1158</v>
       </c>
       <c r="I201" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -9542,7 +9545,7 @@
         <v>206</v>
       </c>
       <c r="E202" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F202" t="s">
         <v>617</v>
@@ -9554,7 +9557,7 @@
         <v>1159</v>
       </c>
       <c r="I202" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -9568,7 +9571,7 @@
         <v>207</v>
       </c>
       <c r="E203" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F203" t="s">
         <v>618</v>
@@ -9580,7 +9583,7 @@
         <v>1159</v>
       </c>
       <c r="I203" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -9594,7 +9597,7 @@
         <v>208</v>
       </c>
       <c r="E204" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F204" t="s">
         <v>619</v>
@@ -9603,10 +9606,10 @@
         <v>836</v>
       </c>
       <c r="H204" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="I204" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -9620,7 +9623,7 @@
         <v>209</v>
       </c>
       <c r="E205" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F205" t="s">
         <v>620</v>
@@ -9629,10 +9632,10 @@
         <v>892</v>
       </c>
       <c r="H205" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="I205" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -9646,7 +9649,7 @@
         <v>210</v>
       </c>
       <c r="E206" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F206" t="s">
         <v>621</v>
@@ -9655,10 +9658,10 @@
         <v>880</v>
       </c>
       <c r="H206" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="I206" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -9672,7 +9675,7 @@
         <v>211</v>
       </c>
       <c r="E207" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F207" t="s">
         <v>622</v>
@@ -9681,10 +9684,10 @@
         <v>989</v>
       </c>
       <c r="H207" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="I207" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -9698,7 +9701,7 @@
         <v>212</v>
       </c>
       <c r="E208" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F208" t="s">
         <v>623</v>
@@ -9710,7 +9713,7 @@
         <v>1160</v>
       </c>
       <c r="I208" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9724,7 +9727,7 @@
         <v>213</v>
       </c>
       <c r="E209" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F209" t="s">
         <v>624</v>
@@ -9736,7 +9739,7 @@
         <v>1161</v>
       </c>
       <c r="I209" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9750,7 +9753,7 @@
         <v>214</v>
       </c>
       <c r="E210" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F210" t="s">
         <v>625</v>
@@ -9762,7 +9765,7 @@
         <v>1161</v>
       </c>
       <c r="I210" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9776,7 +9779,7 @@
         <v>215</v>
       </c>
       <c r="E211" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F211" t="s">
         <v>626</v>
@@ -9788,7 +9791,7 @@
         <v>1160</v>
       </c>
       <c r="I211" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -9802,7 +9805,7 @@
         <v>216</v>
       </c>
       <c r="E212" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F212" t="s">
         <v>627</v>
@@ -9814,7 +9817,7 @@
         <v>1162</v>
       </c>
       <c r="I212" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -9828,7 +9831,7 @@
         <v>217</v>
       </c>
       <c r="E213" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F213" t="s">
         <v>628</v>
@@ -9840,7 +9843,7 @@
         <v>1163</v>
       </c>
       <c r="I213" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -9854,7 +9857,7 @@
         <v>218</v>
       </c>
       <c r="E214" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F214" t="s">
         <v>629</v>
@@ -9866,7 +9869,7 @@
         <v>1163</v>
       </c>
       <c r="I214" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -9880,7 +9883,7 @@
         <v>219</v>
       </c>
       <c r="E215" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F215" t="s">
         <v>630</v>
@@ -9892,7 +9895,7 @@
         <v>1162</v>
       </c>
       <c r="I215" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -9906,7 +9909,7 @@
         <v>220</v>
       </c>
       <c r="E216" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F216" t="s">
         <v>631</v>
@@ -9918,7 +9921,7 @@
         <v>1160</v>
       </c>
       <c r="I216" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -9932,7 +9935,7 @@
         <v>221</v>
       </c>
       <c r="E217" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F217" t="s">
         <v>632</v>
@@ -9941,10 +9944,10 @@
         <v>996</v>
       </c>
       <c r="H217" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="I217" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -9958,7 +9961,7 @@
         <v>222</v>
       </c>
       <c r="E218" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F218" t="s">
         <v>633</v>
@@ -9967,10 +9970,10 @@
         <v>997</v>
       </c>
       <c r="H218" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="I218" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -9984,7 +9987,7 @@
         <v>223</v>
       </c>
       <c r="E219" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F219" t="s">
         <v>634</v>
@@ -9996,7 +9999,7 @@
         <v>1162</v>
       </c>
       <c r="I219" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10010,7 +10013,7 @@
         <v>224</v>
       </c>
       <c r="E220" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F220" t="s">
         <v>635</v>
@@ -10022,7 +10025,7 @@
         <v>1161</v>
       </c>
       <c r="I220" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10036,7 +10039,7 @@
         <v>225</v>
       </c>
       <c r="E221" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F221" t="s">
         <v>636</v>
@@ -10048,7 +10051,7 @@
         <v>1160</v>
       </c>
       <c r="I221" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10062,7 +10065,7 @@
         <v>226</v>
       </c>
       <c r="E222" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F222" t="s">
         <v>637</v>
@@ -10074,7 +10077,7 @@
         <v>1160</v>
       </c>
       <c r="I222" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10088,7 +10091,7 @@
         <v>227</v>
       </c>
       <c r="E223" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F223" t="s">
         <v>638</v>
@@ -10100,7 +10103,7 @@
         <v>1164</v>
       </c>
       <c r="I223" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10114,7 +10117,7 @@
         <v>228</v>
       </c>
       <c r="E224" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F224" t="s">
         <v>639</v>
@@ -10123,10 +10126,10 @@
         <v>1001</v>
       </c>
       <c r="H224" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="I224" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10140,7 +10143,7 @@
         <v>229</v>
       </c>
       <c r="E225" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F225" t="s">
         <v>640</v>
@@ -10149,10 +10152,10 @@
         <v>878</v>
       </c>
       <c r="H225" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="I225" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10166,7 +10169,7 @@
         <v>230</v>
       </c>
       <c r="E226" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F226" t="s">
         <v>641</v>
@@ -10178,7 +10181,7 @@
         <v>1165</v>
       </c>
       <c r="I226" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10192,7 +10195,7 @@
         <v>231</v>
       </c>
       <c r="E227" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F227" t="s">
         <v>642</v>
@@ -10204,7 +10207,7 @@
         <v>1165</v>
       </c>
       <c r="I227" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10218,7 +10221,7 @@
         <v>232</v>
       </c>
       <c r="E228" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F228" t="s">
         <v>643</v>
@@ -10230,7 +10233,7 @@
         <v>1165</v>
       </c>
       <c r="I228" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10244,7 +10247,7 @@
         <v>233</v>
       </c>
       <c r="E229" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F229" t="s">
         <v>644</v>
@@ -10256,7 +10259,7 @@
         <v>1165</v>
       </c>
       <c r="I229" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10270,7 +10273,7 @@
         <v>234</v>
       </c>
       <c r="E230" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F230" t="s">
         <v>645</v>
@@ -10282,7 +10285,7 @@
         <v>1165</v>
       </c>
       <c r="I230" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10296,7 +10299,7 @@
         <v>235</v>
       </c>
       <c r="E231" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F231" t="s">
         <v>646</v>
@@ -10308,7 +10311,7 @@
         <v>1165</v>
       </c>
       <c r="I231" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10322,7 +10325,7 @@
         <v>236</v>
       </c>
       <c r="E232" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F232" t="s">
         <v>647</v>
@@ -10348,7 +10351,7 @@
         <v>237</v>
       </c>
       <c r="E233" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F233" t="s">
         <v>648</v>
@@ -10357,10 +10360,10 @@
         <v>836</v>
       </c>
       <c r="H233" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="I233" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10374,7 +10377,7 @@
         <v>238</v>
       </c>
       <c r="E234" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F234" t="s">
         <v>649</v>
@@ -10386,7 +10389,7 @@
         <v>1166</v>
       </c>
       <c r="I234" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10400,7 +10403,7 @@
         <v>239</v>
       </c>
       <c r="E235" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F235" t="s">
         <v>650</v>
@@ -10412,7 +10415,7 @@
         <v>1166</v>
       </c>
       <c r="I235" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10426,7 +10429,7 @@
         <v>240</v>
       </c>
       <c r="E236" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F236" t="s">
         <v>651</v>
@@ -10438,10 +10441,10 @@
         <v>1167</v>
       </c>
       <c r="I236" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="J236" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10455,7 +10458,7 @@
         <v>241</v>
       </c>
       <c r="E237" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F237" t="s">
         <v>652</v>
@@ -10467,10 +10470,10 @@
         <v>1167</v>
       </c>
       <c r="I237" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="J237" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10484,7 +10487,7 @@
         <v>242</v>
       </c>
       <c r="E238" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F238" t="s">
         <v>653</v>
@@ -10493,10 +10496,10 @@
         <v>844</v>
       </c>
       <c r="H238" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="I238" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10510,7 +10513,7 @@
         <v>243</v>
       </c>
       <c r="E239" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F239" t="s">
         <v>654</v>
@@ -10522,7 +10525,7 @@
         <v>1168</v>
       </c>
       <c r="I239" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10536,7 +10539,7 @@
         <v>244</v>
       </c>
       <c r="E240" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F240" t="s">
         <v>655</v>
@@ -10545,10 +10548,10 @@
         <v>1010</v>
       </c>
       <c r="H240" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="I240" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -10562,7 +10565,7 @@
         <v>245</v>
       </c>
       <c r="E241" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F241" t="s">
         <v>656</v>
@@ -10571,10 +10574,10 @@
         <v>1011</v>
       </c>
       <c r="H241" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="I241" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -10588,7 +10591,7 @@
         <v>246</v>
       </c>
       <c r="E242" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F242" t="s">
         <v>657</v>
@@ -10600,7 +10603,7 @@
         <v>1169</v>
       </c>
       <c r="I242" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -10614,7 +10617,7 @@
         <v>247</v>
       </c>
       <c r="E243" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F243" t="s">
         <v>658</v>
@@ -10626,7 +10629,7 @@
         <v>1169</v>
       </c>
       <c r="I243" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -10640,7 +10643,7 @@
         <v>248</v>
       </c>
       <c r="E244" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F244" t="s">
         <v>659</v>
@@ -10652,7 +10655,7 @@
         <v>1169</v>
       </c>
       <c r="I244" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -10666,7 +10669,7 @@
         <v>249</v>
       </c>
       <c r="E245" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F245" t="s">
         <v>660</v>
@@ -10678,7 +10681,7 @@
         <v>1169</v>
       </c>
       <c r="I245" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -10692,7 +10695,7 @@
         <v>250</v>
       </c>
       <c r="E246" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F246" t="s">
         <v>661</v>
@@ -10704,10 +10707,10 @@
         <v>1167</v>
       </c>
       <c r="I246" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="J246" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -10721,7 +10724,7 @@
         <v>251</v>
       </c>
       <c r="E247" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F247" t="s">
         <v>662</v>
@@ -10733,10 +10736,10 @@
         <v>1167</v>
       </c>
       <c r="I247" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="J247" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -10750,7 +10753,7 @@
         <v>252</v>
       </c>
       <c r="E248" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F248" t="s">
         <v>663</v>
@@ -10759,10 +10762,10 @@
         <v>836</v>
       </c>
       <c r="H248" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="I248" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -10776,7 +10779,7 @@
         <v>253</v>
       </c>
       <c r="E249" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F249" t="s">
         <v>664</v>
@@ -10785,10 +10788,10 @@
         <v>836</v>
       </c>
       <c r="H249" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="I249" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -10802,7 +10805,7 @@
         <v>254</v>
       </c>
       <c r="E250" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F250" t="s">
         <v>665</v>
@@ -10811,10 +10814,10 @@
         <v>1016</v>
       </c>
       <c r="H250" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="I250" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -10828,7 +10831,7 @@
         <v>255</v>
       </c>
       <c r="E251" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F251" t="s">
         <v>666</v>
@@ -10837,10 +10840,10 @@
         <v>835</v>
       </c>
       <c r="H251" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="I251" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -10854,7 +10857,7 @@
         <v>256</v>
       </c>
       <c r="E252" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F252" t="s">
         <v>667</v>
@@ -10866,7 +10869,7 @@
         <v>1168</v>
       </c>
       <c r="I252" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -10880,7 +10883,7 @@
         <v>257</v>
       </c>
       <c r="E253" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F253" t="s">
         <v>668</v>
@@ -10892,7 +10895,7 @@
         <v>1168</v>
       </c>
       <c r="I253" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -10906,7 +10909,7 @@
         <v>258</v>
       </c>
       <c r="E254" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F254" t="s">
         <v>669</v>
@@ -10915,10 +10918,10 @@
         <v>1019</v>
       </c>
       <c r="H254" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="I254" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -10932,7 +10935,7 @@
         <v>259</v>
       </c>
       <c r="E255" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F255" t="s">
         <v>670</v>
@@ -10941,10 +10944,10 @@
         <v>1020</v>
       </c>
       <c r="H255" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="I255" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -10958,7 +10961,7 @@
         <v>260</v>
       </c>
       <c r="E256" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F256" t="s">
         <v>671</v>
@@ -10970,7 +10973,7 @@
         <v>1168</v>
       </c>
       <c r="I256" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -10984,7 +10987,7 @@
         <v>261</v>
       </c>
       <c r="E257" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F257" t="s">
         <v>672</v>
@@ -10996,7 +10999,7 @@
         <v>1118</v>
       </c>
       <c r="I257" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11010,7 +11013,7 @@
         <v>262</v>
       </c>
       <c r="E258" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F258" t="s">
         <v>673</v>
@@ -11022,7 +11025,7 @@
         <v>1171</v>
       </c>
       <c r="I258" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11036,7 +11039,7 @@
         <v>263</v>
       </c>
       <c r="E259" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F259" t="s">
         <v>674</v>
@@ -11048,7 +11051,7 @@
         <v>1118</v>
       </c>
       <c r="I259" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11062,7 +11065,7 @@
         <v>264</v>
       </c>
       <c r="E260" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F260" t="s">
         <v>675</v>
@@ -11071,10 +11074,10 @@
         <v>986</v>
       </c>
       <c r="H260" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="I260" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11088,7 +11091,7 @@
         <v>265</v>
       </c>
       <c r="E261" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F261" t="s">
         <v>676</v>
@@ -11100,7 +11103,7 @@
         <v>1118</v>
       </c>
       <c r="I261" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11114,7 +11117,7 @@
         <v>266</v>
       </c>
       <c r="E262" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F262" t="s">
         <v>677</v>
@@ -11126,7 +11129,7 @@
         <v>1118</v>
       </c>
       <c r="I262" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11140,7 +11143,7 @@
         <v>267</v>
       </c>
       <c r="E263" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F263" t="s">
         <v>678</v>
@@ -11149,10 +11152,10 @@
         <v>1025</v>
       </c>
       <c r="H263" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="I263" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11166,7 +11169,7 @@
         <v>268</v>
       </c>
       <c r="E264" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F264" t="s">
         <v>679</v>
@@ -11175,10 +11178,10 @@
         <v>1026</v>
       </c>
       <c r="H264" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="I264" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11192,7 +11195,7 @@
         <v>269</v>
       </c>
       <c r="E265" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F265" t="s">
         <v>680</v>
@@ -11204,7 +11207,7 @@
         <v>1172</v>
       </c>
       <c r="I265" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11218,7 +11221,7 @@
         <v>270</v>
       </c>
       <c r="E266" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F266" t="s">
         <v>681</v>
@@ -11230,7 +11233,7 @@
         <v>1172</v>
       </c>
       <c r="I266" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11244,7 +11247,7 @@
         <v>271</v>
       </c>
       <c r="E267" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F267" t="s">
         <v>682</v>
@@ -11253,10 +11256,10 @@
         <v>1027</v>
       </c>
       <c r="H267" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="I267" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11270,7 +11273,7 @@
         <v>272</v>
       </c>
       <c r="E268" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F268" t="s">
         <v>683</v>
@@ -11279,10 +11282,10 @@
         <v>884</v>
       </c>
       <c r="H268" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="I268" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11296,7 +11299,7 @@
         <v>273</v>
       </c>
       <c r="E269" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F269" t="s">
         <v>684</v>
@@ -11305,10 +11308,10 @@
         <v>1028</v>
       </c>
       <c r="H269" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="I269" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11322,7 +11325,7 @@
         <v>274</v>
       </c>
       <c r="E270" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F270" t="s">
         <v>685</v>
@@ -11331,10 +11334,10 @@
         <v>1001</v>
       </c>
       <c r="H270" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="I270" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11348,7 +11351,7 @@
         <v>275</v>
       </c>
       <c r="E271" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F271" t="s">
         <v>686</v>
@@ -11360,7 +11363,7 @@
         <v>1171</v>
       </c>
       <c r="I271" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11374,7 +11377,7 @@
         <v>276</v>
       </c>
       <c r="E272" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F272" t="s">
         <v>687</v>
@@ -11386,7 +11389,7 @@
         <v>1173</v>
       </c>
       <c r="I272" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11400,7 +11403,7 @@
         <v>277</v>
       </c>
       <c r="E273" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F273" t="s">
         <v>688</v>
@@ -11412,7 +11415,7 @@
         <v>1118</v>
       </c>
       <c r="I273" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11426,7 +11429,7 @@
         <v>278</v>
       </c>
       <c r="E274" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F274" t="s">
         <v>689</v>
@@ -11438,7 +11441,7 @@
         <v>1118</v>
       </c>
       <c r="I274" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11452,7 +11455,7 @@
         <v>279</v>
       </c>
       <c r="E275" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F275" t="s">
         <v>690</v>
@@ -11461,10 +11464,10 @@
         <v>1031</v>
       </c>
       <c r="H275" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="I275" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11478,7 +11481,7 @@
         <v>280</v>
       </c>
       <c r="E276" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F276" t="s">
         <v>691</v>
@@ -11487,10 +11490,10 @@
         <v>1016</v>
       </c>
       <c r="H276" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="I276" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11504,7 +11507,7 @@
         <v>281</v>
       </c>
       <c r="E277" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F277" t="s">
         <v>692</v>
@@ -11513,10 +11516,10 @@
         <v>848</v>
       </c>
       <c r="H277" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="I277" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11530,7 +11533,7 @@
         <v>282</v>
       </c>
       <c r="E278" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F278" t="s">
         <v>693</v>
@@ -11542,7 +11545,7 @@
         <v>1174</v>
       </c>
       <c r="I278" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11559,7 +11562,7 @@
         <v>283</v>
       </c>
       <c r="E279" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F279" t="s">
         <v>694</v>
@@ -11571,7 +11574,7 @@
         <v>1174</v>
       </c>
       <c r="I279" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11585,7 +11588,7 @@
         <v>284</v>
       </c>
       <c r="E280" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F280" t="s">
         <v>695</v>
@@ -11594,10 +11597,10 @@
         <v>1033</v>
       </c>
       <c r="H280" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="I280" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11614,7 +11617,7 @@
         <v>285</v>
       </c>
       <c r="E281" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F281" t="s">
         <v>696</v>
@@ -11626,7 +11629,7 @@
         <v>1174</v>
       </c>
       <c r="I281" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11640,7 +11643,7 @@
         <v>286</v>
       </c>
       <c r="E282" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F282" t="s">
         <v>697</v>
@@ -11649,10 +11652,10 @@
         <v>1035</v>
       </c>
       <c r="H282" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="I282" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11666,7 +11669,7 @@
         <v>287</v>
       </c>
       <c r="E283" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F283" t="s">
         <v>698</v>
@@ -11678,7 +11681,7 @@
         <v>1174</v>
       </c>
       <c r="I283" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11692,7 +11695,7 @@
         <v>288</v>
       </c>
       <c r="E284" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F284" t="s">
         <v>699</v>
@@ -11704,7 +11707,7 @@
         <v>1174</v>
       </c>
       <c r="I284" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11718,7 +11721,7 @@
         <v>289</v>
       </c>
       <c r="E285" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F285" t="s">
         <v>700</v>
@@ -11730,7 +11733,7 @@
         <v>1174</v>
       </c>
       <c r="I285" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11744,7 +11747,7 @@
         <v>290</v>
       </c>
       <c r="E286" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F286" t="s">
         <v>701</v>
@@ -11756,7 +11759,7 @@
         <v>1175</v>
       </c>
       <c r="I286" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -11770,7 +11773,7 @@
         <v>291</v>
       </c>
       <c r="E287" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F287" t="s">
         <v>702</v>
@@ -11782,7 +11785,7 @@
         <v>1175</v>
       </c>
       <c r="I287" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -11796,7 +11799,7 @@
         <v>292</v>
       </c>
       <c r="E288" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F288" t="s">
         <v>703</v>
@@ -11808,7 +11811,7 @@
         <v>1175</v>
       </c>
       <c r="I288" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -11822,7 +11825,7 @@
         <v>293</v>
       </c>
       <c r="E289" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F289" t="s">
         <v>704</v>
@@ -11834,7 +11837,7 @@
         <v>1175</v>
       </c>
       <c r="I289" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -11848,7 +11851,7 @@
         <v>294</v>
       </c>
       <c r="E290" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F290" t="s">
         <v>705</v>
@@ -11860,7 +11863,7 @@
         <v>1176</v>
       </c>
       <c r="I290" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -11874,7 +11877,7 @@
         <v>295</v>
       </c>
       <c r="E291" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F291" t="s">
         <v>706</v>
@@ -11886,7 +11889,7 @@
         <v>1177</v>
       </c>
       <c r="I291" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -11900,7 +11903,7 @@
         <v>296</v>
       </c>
       <c r="E292" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F292" t="s">
         <v>707</v>
@@ -11912,7 +11915,7 @@
         <v>1178</v>
       </c>
       <c r="I292" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -11926,7 +11929,7 @@
         <v>297</v>
       </c>
       <c r="E293" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F293" t="s">
         <v>708</v>
@@ -11938,7 +11941,7 @@
         <v>1178</v>
       </c>
       <c r="I293" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -11952,7 +11955,7 @@
         <v>298</v>
       </c>
       <c r="E294" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F294" t="s">
         <v>709</v>
@@ -11964,7 +11967,7 @@
         <v>1178</v>
       </c>
       <c r="I294" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -11978,7 +11981,7 @@
         <v>299</v>
       </c>
       <c r="E295" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F295" t="s">
         <v>710</v>
@@ -11990,7 +11993,7 @@
         <v>1179</v>
       </c>
       <c r="I295" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12004,7 +12007,7 @@
         <v>300</v>
       </c>
       <c r="E296" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F296" t="s">
         <v>711</v>
@@ -12016,7 +12019,7 @@
         <v>1175</v>
       </c>
       <c r="I296" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12030,7 +12033,7 @@
         <v>301</v>
       </c>
       <c r="E297" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F297" t="s">
         <v>712</v>
@@ -12042,7 +12045,7 @@
         <v>1178</v>
       </c>
       <c r="I297" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12056,7 +12059,7 @@
         <v>302</v>
       </c>
       <c r="E298" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F298" t="s">
         <v>713</v>
@@ -12068,7 +12071,7 @@
         <v>1180</v>
       </c>
       <c r="I298" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12082,7 +12085,7 @@
         <v>303</v>
       </c>
       <c r="E299" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F299" t="s">
         <v>714</v>
@@ -12091,10 +12094,10 @@
         <v>1044</v>
       </c>
       <c r="H299" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="I299" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12108,7 +12111,7 @@
         <v>304</v>
       </c>
       <c r="E300" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F300" t="s">
         <v>715</v>
@@ -12117,10 +12120,10 @@
         <v>1016</v>
       </c>
       <c r="H300" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="I300" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12134,7 +12137,7 @@
         <v>305</v>
       </c>
       <c r="E301" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F301" t="s">
         <v>716</v>
@@ -12146,7 +12149,7 @@
         <v>1181</v>
       </c>
       <c r="I301" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12160,7 +12163,7 @@
         <v>306</v>
       </c>
       <c r="E302" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F302" t="s">
         <v>717</v>
@@ -12169,10 +12172,10 @@
         <v>1045</v>
       </c>
       <c r="H302" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="I302" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12186,7 +12189,7 @@
         <v>307</v>
       </c>
       <c r="E303" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F303" t="s">
         <v>718</v>
@@ -12198,7 +12201,7 @@
         <v>1182</v>
       </c>
       <c r="I303" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12212,7 +12215,7 @@
         <v>308</v>
       </c>
       <c r="E304" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F304" t="s">
         <v>719</v>
@@ -12224,7 +12227,7 @@
         <v>1183</v>
       </c>
       <c r="I304" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12238,7 +12241,7 @@
         <v>309</v>
       </c>
       <c r="E305" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F305" t="s">
         <v>720</v>
@@ -12250,7 +12253,7 @@
         <v>1182</v>
       </c>
       <c r="I305" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12264,7 +12267,7 @@
         <v>310</v>
       </c>
       <c r="E306" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F306" t="s">
         <v>721</v>
@@ -12276,7 +12279,7 @@
         <v>1180</v>
       </c>
       <c r="I306" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12290,7 +12293,7 @@
         <v>311</v>
       </c>
       <c r="E307" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F307" t="s">
         <v>722</v>
@@ -12299,10 +12302,10 @@
         <v>1046</v>
       </c>
       <c r="H307" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="I307" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12316,7 +12319,7 @@
         <v>312</v>
       </c>
       <c r="E308" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F308" t="s">
         <v>723</v>
@@ -12325,10 +12328,10 @@
         <v>1047</v>
       </c>
       <c r="H308" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="I308" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12345,7 +12348,7 @@
         <v>313</v>
       </c>
       <c r="E309" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F309" t="s">
         <v>724</v>
@@ -12354,10 +12357,10 @@
         <v>951</v>
       </c>
       <c r="H309" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="I309" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12371,7 +12374,7 @@
         <v>314</v>
       </c>
       <c r="E310" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F310" t="s">
         <v>725</v>
@@ -12383,7 +12386,7 @@
         <v>1184</v>
       </c>
       <c r="I310" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12397,7 +12400,7 @@
         <v>315</v>
       </c>
       <c r="E311" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F311" t="s">
         <v>726</v>
@@ -12409,7 +12412,7 @@
         <v>1184</v>
       </c>
       <c r="I311" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12423,7 +12426,7 @@
         <v>316</v>
       </c>
       <c r="E312" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F312" t="s">
         <v>727</v>
@@ -12432,10 +12435,10 @@
         <v>1049</v>
       </c>
       <c r="H312" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="I312" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12449,7 +12452,7 @@
         <v>317</v>
       </c>
       <c r="E313" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F313" t="s">
         <v>728</v>
@@ -12458,10 +12461,10 @@
         <v>1050</v>
       </c>
       <c r="H313" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="I313" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12475,7 +12478,7 @@
         <v>318</v>
       </c>
       <c r="E314" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F314" t="s">
         <v>729</v>
@@ -12484,10 +12487,10 @@
         <v>1051</v>
       </c>
       <c r="H314" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="I314" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12501,7 +12504,7 @@
         <v>319</v>
       </c>
       <c r="E315" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F315" t="s">
         <v>730</v>
@@ -12513,7 +12516,7 @@
         <v>1182</v>
       </c>
       <c r="I315" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12527,7 +12530,7 @@
         <v>320</v>
       </c>
       <c r="E316" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F316" t="s">
         <v>731</v>
@@ -12539,7 +12542,7 @@
         <v>1185</v>
       </c>
       <c r="I316" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12553,7 +12556,7 @@
         <v>321</v>
       </c>
       <c r="E317" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F317" t="s">
         <v>732</v>
@@ -12565,7 +12568,7 @@
         <v>1168</v>
       </c>
       <c r="I317" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12579,7 +12582,7 @@
         <v>322</v>
       </c>
       <c r="E318" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F318" t="s">
         <v>733</v>
@@ -12588,10 +12591,10 @@
         <v>1054</v>
       </c>
       <c r="H318" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="I318" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12605,7 +12608,7 @@
         <v>323</v>
       </c>
       <c r="E319" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F319" t="s">
         <v>734</v>
@@ -12614,10 +12617,10 @@
         <v>844</v>
       </c>
       <c r="H319" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="I319" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12634,7 +12637,7 @@
         <v>324</v>
       </c>
       <c r="E320" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F320" t="s">
         <v>735</v>
@@ -12646,7 +12649,7 @@
         <v>1186</v>
       </c>
       <c r="I320" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12660,7 +12663,7 @@
         <v>325</v>
       </c>
       <c r="E321" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F321" t="s">
         <v>736</v>
@@ -12672,7 +12675,7 @@
         <v>1186</v>
       </c>
       <c r="I321" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12686,7 +12689,7 @@
         <v>326</v>
       </c>
       <c r="E322" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F322" t="s">
         <v>737</v>
@@ -12698,7 +12701,7 @@
         <v>1185</v>
       </c>
       <c r="I322" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12712,7 +12715,7 @@
         <v>327</v>
       </c>
       <c r="E323" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F323" t="s">
         <v>738</v>
@@ -12724,7 +12727,7 @@
         <v>1187</v>
       </c>
       <c r="I323" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12738,7 +12741,7 @@
         <v>328</v>
       </c>
       <c r="E324" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F324" t="s">
         <v>739</v>
@@ -12750,7 +12753,7 @@
         <v>1187</v>
       </c>
       <c r="I324" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12764,7 +12767,7 @@
         <v>329</v>
       </c>
       <c r="E325" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F325" t="s">
         <v>740</v>
@@ -12776,7 +12779,7 @@
         <v>1188</v>
       </c>
       <c r="I325" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -12790,7 +12793,7 @@
         <v>330</v>
       </c>
       <c r="E326" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F326" t="s">
         <v>741</v>
@@ -12802,7 +12805,7 @@
         <v>1188</v>
       </c>
       <c r="I326" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -12816,7 +12819,7 @@
         <v>331</v>
       </c>
       <c r="E327" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F327" t="s">
         <v>742</v>
@@ -12828,7 +12831,7 @@
         <v>1189</v>
       </c>
       <c r="I327" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -12842,7 +12845,7 @@
         <v>332</v>
       </c>
       <c r="E328" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F328" t="s">
         <v>743</v>
@@ -12854,7 +12857,7 @@
         <v>1190</v>
       </c>
       <c r="I328" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -12868,7 +12871,7 @@
         <v>333</v>
       </c>
       <c r="E329" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F329" t="s">
         <v>744</v>
@@ -12880,7 +12883,7 @@
         <v>1190</v>
       </c>
       <c r="I329" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -12894,7 +12897,7 @@
         <v>334</v>
       </c>
       <c r="E330" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F330" t="s">
         <v>745</v>
@@ -12906,7 +12909,7 @@
         <v>1190</v>
       </c>
       <c r="I330" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -12920,7 +12923,7 @@
         <v>335</v>
       </c>
       <c r="E331" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F331" t="s">
         <v>746</v>
@@ -12932,7 +12935,7 @@
         <v>1191</v>
       </c>
       <c r="I331" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -12946,7 +12949,7 @@
         <v>336</v>
       </c>
       <c r="E332" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F332" t="s">
         <v>747</v>
@@ -12958,7 +12961,7 @@
         <v>1191</v>
       </c>
       <c r="I332" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -12972,7 +12975,7 @@
         <v>337</v>
       </c>
       <c r="E333" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F333" t="s">
         <v>748</v>
@@ -12984,7 +12987,7 @@
         <v>1192</v>
       </c>
       <c r="I333" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -12998,7 +13001,7 @@
         <v>338</v>
       </c>
       <c r="E334" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F334" t="s">
         <v>749</v>
@@ -13010,7 +13013,7 @@
         <v>1192</v>
       </c>
       <c r="I334" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13027,7 +13030,7 @@
         <v>339</v>
       </c>
       <c r="E335" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F335" t="s">
         <v>750</v>
@@ -13039,7 +13042,7 @@
         <v>1193</v>
       </c>
       <c r="I335" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13056,7 +13059,7 @@
         <v>340</v>
       </c>
       <c r="E336" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F336" t="s">
         <v>751</v>
@@ -13068,7 +13071,7 @@
         <v>1193</v>
       </c>
       <c r="I336" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.3">
@@ -13085,7 +13088,7 @@
         <v>341</v>
       </c>
       <c r="E337" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F337" t="s">
         <v>752</v>
@@ -13097,7 +13100,7 @@
         <v>1193</v>
       </c>
       <c r="I337" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.3">
@@ -13111,7 +13114,7 @@
         <v>342</v>
       </c>
       <c r="E338" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F338" t="s">
         <v>753</v>
@@ -13120,10 +13123,10 @@
         <v>844</v>
       </c>
       <c r="H338" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="I338" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.3">
@@ -13137,7 +13140,7 @@
         <v>343</v>
       </c>
       <c r="E339" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F339" t="s">
         <v>754</v>
@@ -13149,7 +13152,7 @@
         <v>1194</v>
       </c>
       <c r="I339" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
@@ -13163,7 +13166,7 @@
         <v>344</v>
       </c>
       <c r="E340" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F340" t="s">
         <v>755</v>
@@ -13175,7 +13178,7 @@
         <v>1194</v>
       </c>
       <c r="I340" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.3">
@@ -13189,7 +13192,7 @@
         <v>345</v>
       </c>
       <c r="E341" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F341" t="s">
         <v>756</v>
@@ -13201,7 +13204,7 @@
         <v>1194</v>
       </c>
       <c r="I341" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.3">
@@ -13215,7 +13218,7 @@
         <v>346</v>
       </c>
       <c r="E342" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F342" t="s">
         <v>757</v>
@@ -13227,7 +13230,7 @@
         <v>1194</v>
       </c>
       <c r="I342" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.3">
@@ -13241,7 +13244,7 @@
         <v>347</v>
       </c>
       <c r="E343" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F343" t="s">
         <v>758</v>
@@ -13253,7 +13256,7 @@
         <v>1195</v>
       </c>
       <c r="I343" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.3">
@@ -13267,7 +13270,7 @@
         <v>348</v>
       </c>
       <c r="E344" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F344" t="s">
         <v>759</v>
@@ -13279,7 +13282,7 @@
         <v>1195</v>
       </c>
       <c r="I344" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.3">
@@ -13293,7 +13296,7 @@
         <v>349</v>
       </c>
       <c r="E345" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F345" t="s">
         <v>760</v>
@@ -13305,7 +13308,7 @@
         <v>1195</v>
       </c>
       <c r="I345" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.3">
@@ -13319,7 +13322,7 @@
         <v>350</v>
       </c>
       <c r="E346" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F346" t="s">
         <v>761</v>
@@ -13331,13 +13334,13 @@
         <v>1195</v>
       </c>
       <c r="I346" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="K346" t="s">
         <v>1194</v>
       </c>
       <c r="L346" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.3">
@@ -13351,7 +13354,7 @@
         <v>351</v>
       </c>
       <c r="E347" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F347" t="s">
         <v>762</v>
@@ -13363,7 +13366,7 @@
         <v>1196</v>
       </c>
       <c r="I347" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.3">
@@ -13377,7 +13380,7 @@
         <v>352</v>
       </c>
       <c r="E348" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F348" t="s">
         <v>763</v>
@@ -13389,7 +13392,7 @@
         <v>1197</v>
       </c>
       <c r="I348" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.3">
@@ -13406,7 +13409,7 @@
         <v>353</v>
       </c>
       <c r="E349" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F349" t="s">
         <v>764</v>
@@ -13418,10 +13421,10 @@
         <v>1170</v>
       </c>
       <c r="I349" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J349" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.3">
@@ -13435,7 +13438,7 @@
         <v>354</v>
       </c>
       <c r="E350" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F350" t="s">
         <v>765</v>
@@ -13447,10 +13450,10 @@
         <v>1170</v>
       </c>
       <c r="I350" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J350" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.3">
@@ -13464,7 +13467,7 @@
         <v>355</v>
       </c>
       <c r="E351" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F351" t="s">
         <v>766</v>
@@ -13476,10 +13479,10 @@
         <v>1170</v>
       </c>
       <c r="I351" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J351" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.3">
@@ -13493,7 +13496,7 @@
         <v>356</v>
       </c>
       <c r="E352" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F352" t="s">
         <v>767</v>
@@ -13505,10 +13508,10 @@
         <v>1170</v>
       </c>
       <c r="I352" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="J352" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -13522,7 +13525,7 @@
         <v>357</v>
       </c>
       <c r="E353" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F353" t="s">
         <v>768</v>
@@ -13534,7 +13537,7 @@
         <v>1198</v>
       </c>
       <c r="I353" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -13548,7 +13551,7 @@
         <v>358</v>
       </c>
       <c r="E354" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F354" t="s">
         <v>769</v>
@@ -13560,7 +13563,7 @@
         <v>1198</v>
       </c>
       <c r="I354" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -13574,7 +13577,7 @@
         <v>359</v>
       </c>
       <c r="E355" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F355" t="s">
         <v>770</v>
@@ -13586,7 +13589,7 @@
         <v>1198</v>
       </c>
       <c r="I355" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -13600,7 +13603,7 @@
         <v>360</v>
       </c>
       <c r="E356" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F356" t="s">
         <v>771</v>
@@ -13612,7 +13615,7 @@
         <v>1198</v>
       </c>
       <c r="I356" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -13626,7 +13629,7 @@
         <v>361</v>
       </c>
       <c r="E357" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F357" t="s">
         <v>772</v>
@@ -13638,7 +13641,7 @@
         <v>1198</v>
       </c>
       <c r="I357" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -13652,7 +13655,7 @@
         <v>362</v>
       </c>
       <c r="E358" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F358" t="s">
         <v>773</v>
@@ -13664,7 +13667,7 @@
         <v>1198</v>
       </c>
       <c r="I358" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -13678,7 +13681,7 @@
         <v>363</v>
       </c>
       <c r="E359" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F359" t="s">
         <v>774</v>
@@ -13690,7 +13693,7 @@
         <v>1198</v>
       </c>
       <c r="I359" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -13704,7 +13707,7 @@
         <v>364</v>
       </c>
       <c r="E360" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F360" t="s">
         <v>775</v>
@@ -13716,7 +13719,7 @@
         <v>1198</v>
       </c>
       <c r="I360" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -13730,7 +13733,7 @@
         <v>365</v>
       </c>
       <c r="E361" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F361" t="s">
         <v>776</v>
@@ -13742,7 +13745,7 @@
         <v>1199</v>
       </c>
       <c r="I361" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -13756,7 +13759,7 @@
         <v>366</v>
       </c>
       <c r="E362" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F362" t="s">
         <v>777</v>
@@ -13768,7 +13771,7 @@
         <v>1199</v>
       </c>
       <c r="I362" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -13782,7 +13785,7 @@
         <v>367</v>
       </c>
       <c r="E363" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F363" t="s">
         <v>778</v>
@@ -13794,7 +13797,7 @@
         <v>1199</v>
       </c>
       <c r="I363" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -13808,7 +13811,7 @@
         <v>368</v>
       </c>
       <c r="E364" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F364" t="s">
         <v>779</v>
@@ -13820,7 +13823,7 @@
         <v>1200</v>
       </c>
       <c r="I364" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -13834,7 +13837,7 @@
         <v>369</v>
       </c>
       <c r="E365" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F365" t="s">
         <v>780</v>
@@ -13846,7 +13849,7 @@
         <v>1201</v>
       </c>
       <c r="I365" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -13860,7 +13863,7 @@
         <v>370</v>
       </c>
       <c r="E366" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F366" t="s">
         <v>781</v>
@@ -13872,7 +13875,7 @@
         <v>1201</v>
       </c>
       <c r="I366" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -13889,7 +13892,7 @@
         <v>371</v>
       </c>
       <c r="E367" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F367" t="s">
         <v>782</v>
@@ -13901,7 +13904,7 @@
         <v>1202</v>
       </c>
       <c r="I367" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -13918,7 +13921,7 @@
         <v>372</v>
       </c>
       <c r="E368" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F368" t="s">
         <v>783</v>
@@ -13930,7 +13933,7 @@
         <v>1202</v>
       </c>
       <c r="I368" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -13947,7 +13950,7 @@
         <v>373</v>
       </c>
       <c r="E369" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F369" t="s">
         <v>784</v>
@@ -13959,7 +13962,7 @@
         <v>1202</v>
       </c>
       <c r="I369" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -13976,7 +13979,7 @@
         <v>374</v>
       </c>
       <c r="E370" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F370" t="s">
         <v>785</v>
@@ -13988,7 +13991,7 @@
         <v>1202</v>
       </c>
       <c r="I370" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14005,7 +14008,7 @@
         <v>375</v>
       </c>
       <c r="E371" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F371" t="s">
         <v>786</v>
@@ -14017,7 +14020,7 @@
         <v>1203</v>
       </c>
       <c r="I371" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14034,7 +14037,7 @@
         <v>376</v>
       </c>
       <c r="E372" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F372" t="s">
         <v>787</v>
@@ -14046,7 +14049,7 @@
         <v>1203</v>
       </c>
       <c r="I372" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14063,7 +14066,7 @@
         <v>377</v>
       </c>
       <c r="E373" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F373" t="s">
         <v>788</v>
@@ -14075,7 +14078,7 @@
         <v>1203</v>
       </c>
       <c r="I373" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14092,7 +14095,7 @@
         <v>378</v>
       </c>
       <c r="E374" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F374" t="s">
         <v>789</v>
@@ -14104,7 +14107,7 @@
         <v>1203</v>
       </c>
       <c r="I374" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14121,7 +14124,7 @@
         <v>379</v>
       </c>
       <c r="E375" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F375" t="s">
         <v>790</v>
@@ -14133,7 +14136,7 @@
         <v>1203</v>
       </c>
       <c r="I375" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14147,7 +14150,7 @@
         <v>380</v>
       </c>
       <c r="E376" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F376" t="s">
         <v>791</v>
@@ -14159,7 +14162,7 @@
         <v>1204</v>
       </c>
       <c r="I376" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14173,7 +14176,7 @@
         <v>381</v>
       </c>
       <c r="E377" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F377" t="s">
         <v>792</v>
@@ -14185,7 +14188,7 @@
         <v>1204</v>
       </c>
       <c r="I377" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14199,7 +14202,7 @@
         <v>382</v>
       </c>
       <c r="E378" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F378" t="s">
         <v>793</v>
@@ -14211,7 +14214,7 @@
         <v>1205</v>
       </c>
       <c r="I378" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14225,7 +14228,7 @@
         <v>383</v>
       </c>
       <c r="E379" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F379" t="s">
         <v>794</v>
@@ -14237,7 +14240,7 @@
         <v>1206</v>
       </c>
       <c r="I379" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14251,7 +14254,7 @@
         <v>384</v>
       </c>
       <c r="E380" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F380" t="s">
         <v>795</v>
@@ -14263,7 +14266,7 @@
         <v>1206</v>
       </c>
       <c r="I380" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14277,7 +14280,7 @@
         <v>385</v>
       </c>
       <c r="E381" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F381" t="s">
         <v>796</v>
@@ -14289,7 +14292,7 @@
         <v>1206</v>
       </c>
       <c r="I381" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14303,7 +14306,7 @@
         <v>386</v>
       </c>
       <c r="E382" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F382" t="s">
         <v>797</v>
@@ -14315,7 +14318,7 @@
         <v>1206</v>
       </c>
       <c r="I382" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14329,7 +14332,7 @@
         <v>387</v>
       </c>
       <c r="E383" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F383" t="s">
         <v>798</v>
@@ -14341,7 +14344,7 @@
         <v>1117</v>
       </c>
       <c r="I383" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14355,7 +14358,7 @@
         <v>388</v>
       </c>
       <c r="E384" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F384" t="s">
         <v>799</v>
@@ -14367,7 +14370,7 @@
         <v>1117</v>
       </c>
       <c r="I384" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14381,7 +14384,7 @@
         <v>389</v>
       </c>
       <c r="E385" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F385" t="s">
         <v>800</v>
@@ -14393,7 +14396,7 @@
         <v>1117</v>
       </c>
       <c r="I385" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14407,7 +14410,7 @@
         <v>390</v>
       </c>
       <c r="E386" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F386" t="s">
         <v>488</v>
@@ -14419,7 +14422,7 @@
         <v>1117</v>
       </c>
       <c r="I386" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14433,7 +14436,7 @@
         <v>391</v>
       </c>
       <c r="E387" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F387" t="s">
         <v>801</v>
@@ -14442,10 +14445,10 @@
         <v>1082</v>
       </c>
       <c r="H387" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="I387" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14459,7 +14462,7 @@
         <v>392</v>
       </c>
       <c r="E388" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F388" t="s">
         <v>802</v>
@@ -14468,10 +14471,10 @@
         <v>1083</v>
       </c>
       <c r="H388" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="I388" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14485,7 +14488,7 @@
         <v>393</v>
       </c>
       <c r="E389" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F389" t="s">
         <v>803</v>
@@ -14494,10 +14497,10 @@
         <v>1084</v>
       </c>
       <c r="H389" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="I389" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14511,7 +14514,7 @@
         <v>394</v>
       </c>
       <c r="E390" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F390" t="s">
         <v>804</v>
@@ -14520,10 +14523,10 @@
         <v>1085</v>
       </c>
       <c r="H390" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="I390" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14537,7 +14540,7 @@
         <v>395</v>
       </c>
       <c r="E391" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F391" t="s">
         <v>805</v>
@@ -14546,10 +14549,10 @@
         <v>1086</v>
       </c>
       <c r="H391" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="I391" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -14563,7 +14566,7 @@
         <v>396</v>
       </c>
       <c r="E392" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F392" t="s">
         <v>806</v>
@@ -14572,10 +14575,10 @@
         <v>1087</v>
       </c>
       <c r="H392" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="I392" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -14589,7 +14592,7 @@
         <v>397</v>
       </c>
       <c r="E393" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F393" t="s">
         <v>807</v>
@@ -14601,7 +14604,7 @@
         <v>1207</v>
       </c>
       <c r="I393" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -14615,7 +14618,7 @@
         <v>398</v>
       </c>
       <c r="E394" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F394" t="s">
         <v>808</v>
@@ -14627,7 +14630,7 @@
         <v>1207</v>
       </c>
       <c r="I394" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -14641,7 +14644,7 @@
         <v>399</v>
       </c>
       <c r="E395" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F395" t="s">
         <v>809</v>
@@ -14653,7 +14656,7 @@
         <v>1207</v>
       </c>
       <c r="I395" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -14667,7 +14670,7 @@
         <v>400</v>
       </c>
       <c r="E396" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F396" t="s">
         <v>810</v>
@@ -14679,7 +14682,7 @@
         <v>1207</v>
       </c>
       <c r="I396" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -14693,7 +14696,7 @@
         <v>401</v>
       </c>
       <c r="E397" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F397" t="s">
         <v>811</v>
@@ -14705,7 +14708,7 @@
         <v>1207</v>
       </c>
       <c r="I397" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -14719,7 +14722,7 @@
         <v>402</v>
       </c>
       <c r="E398" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F398" t="s">
         <v>812</v>
@@ -14731,7 +14734,7 @@
         <v>1208</v>
       </c>
       <c r="I398" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -14745,7 +14748,7 @@
         <v>403</v>
       </c>
       <c r="E399" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F399" t="s">
         <v>813</v>
@@ -14757,7 +14760,7 @@
         <v>1209</v>
       </c>
       <c r="I399" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -14771,7 +14774,7 @@
         <v>404</v>
       </c>
       <c r="E400" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F400" t="s">
         <v>814</v>
@@ -14783,7 +14786,7 @@
         <v>1210</v>
       </c>
       <c r="I400" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -14800,7 +14803,7 @@
         <v>405</v>
       </c>
       <c r="E401" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F401" t="s">
         <v>815</v>
@@ -14812,7 +14815,7 @@
         <v>1211</v>
       </c>
       <c r="I401" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -14826,7 +14829,7 @@
         <v>406</v>
       </c>
       <c r="E402" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F402" t="s">
         <v>816</v>
@@ -14838,7 +14841,7 @@
         <v>1211</v>
       </c>
       <c r="I402" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -14852,7 +14855,7 @@
         <v>407</v>
       </c>
       <c r="E403" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F403" t="s">
         <v>817</v>
@@ -14864,7 +14867,7 @@
         <v>1212</v>
       </c>
       <c r="I403" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -14878,7 +14881,7 @@
         <v>408</v>
       </c>
       <c r="E404" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F404" t="s">
         <v>818</v>
@@ -14890,7 +14893,7 @@
         <v>1212</v>
       </c>
       <c r="I404" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -14904,7 +14907,7 @@
         <v>409</v>
       </c>
       <c r="E405" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F405" t="s">
         <v>819</v>
@@ -14916,7 +14919,7 @@
         <v>1212</v>
       </c>
       <c r="I405" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -14930,7 +14933,7 @@
         <v>410</v>
       </c>
       <c r="E406" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F406" t="s">
         <v>820</v>
@@ -14942,7 +14945,7 @@
         <v>1212</v>
       </c>
       <c r="I406" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -14956,7 +14959,7 @@
         <v>411</v>
       </c>
       <c r="E407" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F407" t="s">
         <v>821</v>
@@ -14965,10 +14968,10 @@
         <v>836</v>
       </c>
       <c r="H407" t="s">
-        <v>1213</v>
+        <v>1267</v>
       </c>
       <c r="I407" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -14982,7 +14985,7 @@
         <v>412</v>
       </c>
       <c r="E408" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F408" t="s">
         <v>822</v>
@@ -14991,10 +14994,10 @@
         <v>836</v>
       </c>
       <c r="H408" t="s">
-        <v>1213</v>
+        <v>1267</v>
       </c>
       <c r="I408" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15008,7 +15011,7 @@
         <v>413</v>
       </c>
       <c r="E409" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F409" t="s">
         <v>823</v>
@@ -15017,10 +15020,10 @@
         <v>835</v>
       </c>
       <c r="H409" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I409" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15034,7 +15037,7 @@
         <v>414</v>
       </c>
       <c r="E410" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F410" t="s">
         <v>824</v>
@@ -15043,10 +15046,10 @@
         <v>1098</v>
       </c>
       <c r="H410" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I410" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15060,7 +15063,7 @@
         <v>415</v>
       </c>
       <c r="E411" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F411" t="s">
         <v>825</v>
@@ -15069,10 +15072,10 @@
         <v>1098</v>
       </c>
       <c r="H411" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I411" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15086,7 +15089,7 @@
         <v>416</v>
       </c>
       <c r="E412" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F412" t="s">
         <v>826</v>
@@ -15095,10 +15098,10 @@
         <v>1079</v>
       </c>
       <c r="H412" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I412" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15112,7 +15115,7 @@
         <v>417</v>
       </c>
       <c r="E413" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F413" t="s">
         <v>827</v>
@@ -15121,10 +15124,10 @@
         <v>1099</v>
       </c>
       <c r="H413" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I413" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15138,7 +15141,7 @@
         <v>418</v>
       </c>
       <c r="E414" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F414" t="s">
         <v>828</v>
@@ -15147,10 +15150,10 @@
         <v>1100</v>
       </c>
       <c r="H414" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I414" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15164,7 +15167,7 @@
         <v>419</v>
       </c>
       <c r="E415" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F415" t="s">
         <v>829</v>
@@ -15173,10 +15176,10 @@
         <v>1101</v>
       </c>
       <c r="H415" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I415" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15190,7 +15193,7 @@
         <v>420</v>
       </c>
       <c r="E416" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F416" t="s">
         <v>830</v>
@@ -15199,10 +15202,10 @@
         <v>835</v>
       </c>
       <c r="H416" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I416" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15216,7 +15219,7 @@
         <v>421</v>
       </c>
       <c r="E417" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F417" t="s">
         <v>831</v>
@@ -15225,10 +15228,10 @@
         <v>835</v>
       </c>
       <c r="H417" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I417" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
   </sheetData>
